--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.792123916156</v>
+        <v>870.4892750248479</v>
       </c>
       <c r="AB2" t="n">
-        <v>1124.412238851849</v>
+        <v>1191.041829365445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1017.099912898317</v>
+        <v>1077.370468808512</v>
       </c>
       <c r="AD2" t="n">
-        <v>821792.123916156</v>
+        <v>870489.2750248478</v>
       </c>
       <c r="AE2" t="n">
-        <v>1124412.238851849</v>
+        <v>1191041.829365445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.838289670995467e-06</v>
+        <v>3.401317182102696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1017099.912898317</v>
+        <v>1077370.468808512</v>
       </c>
     </row>
     <row r="3">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.614440651651</v>
+        <v>322.9203905329868</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.5774516389415</v>
+        <v>441.8339245694145</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.5833930965752</v>
+        <v>399.6659149263167</v>
       </c>
       <c r="AD3" t="n">
-        <v>298614.440651651</v>
+        <v>322920.3905329868</v>
       </c>
       <c r="AE3" t="n">
-        <v>408577.4516389415</v>
+        <v>441833.9245694145</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.392688246065437e-06</v>
+        <v>6.277361509957964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>369583.3930965752</v>
+        <v>399665.9149263167</v>
       </c>
     </row>
     <row r="4">
@@ -4939,28 +4939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.7336758706261</v>
+        <v>256.1248770979821</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.068238694293</v>
+        <v>350.4413562773981</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.8076910014717</v>
+        <v>316.9957250819205</v>
       </c>
       <c r="AD4" t="n">
-        <v>231733.6758706261</v>
+        <v>256124.877097982</v>
       </c>
       <c r="AE4" t="n">
-        <v>317068.238694293</v>
+        <v>350441.3562773981</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.945444341883373e-06</v>
+        <v>7.300105006742911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.852083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>286807.6910014717</v>
+        <v>316995.7250819205</v>
       </c>
     </row>
     <row r="5">
@@ -5045,28 +5045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.0267832727073</v>
+        <v>234.4179845000633</v>
       </c>
       <c r="AB5" t="n">
-        <v>287.3679106013209</v>
+        <v>320.7410281844261</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.9419205370111</v>
+        <v>290.12995461746</v>
       </c>
       <c r="AD5" t="n">
-        <v>210026.7832727073</v>
+        <v>234417.9845000634</v>
       </c>
       <c r="AE5" t="n">
-        <v>287367.910601321</v>
+        <v>320741.0281844261</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.238088503459194e-06</v>
+        <v>7.841573324122327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.585416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>259941.9205370111</v>
+        <v>290129.95461746</v>
       </c>
     </row>
     <row r="6">
@@ -5151,28 +5151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.2569645043145</v>
+        <v>222.4775735310784</v>
       </c>
       <c r="AB6" t="n">
-        <v>271.2639253146567</v>
+        <v>304.4036311229149</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.3748770040156</v>
+        <v>275.3517758018135</v>
       </c>
       <c r="AD6" t="n">
-        <v>198256.9645043145</v>
+        <v>222477.5735310784</v>
       </c>
       <c r="AE6" t="n">
-        <v>271263.9253146567</v>
+        <v>304403.631122915</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.413733354175688e-06</v>
+        <v>8.166562284304188e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.442708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>245374.8770040156</v>
+        <v>275351.7758018135</v>
       </c>
     </row>
     <row r="7">
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.7684376079621</v>
+        <v>213.9890466347259</v>
       </c>
       <c r="AB7" t="n">
-        <v>259.6495483276964</v>
+        <v>292.7892541359547</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.8689598558067</v>
+        <v>264.8458586536046</v>
       </c>
       <c r="AD7" t="n">
-        <v>189768.4376079621</v>
+        <v>213989.0466347259</v>
       </c>
       <c r="AE7" t="n">
-        <v>259649.5483276965</v>
+        <v>292789.2541359547</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.546634067633102e-06</v>
+        <v>8.41246339952485e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.342708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>234868.9598558067</v>
+        <v>264845.8586536046</v>
       </c>
     </row>
     <row r="8">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>184.4967601922297</v>
+        <v>196.6924503144587</v>
       </c>
       <c r="AB8" t="n">
-        <v>252.4366067175012</v>
+        <v>269.1232879786021</v>
       </c>
       <c r="AC8" t="n">
-        <v>228.344411269459</v>
+        <v>243.43853909091</v>
       </c>
       <c r="AD8" t="n">
-        <v>184496.7601922296</v>
+        <v>196692.4503144587</v>
       </c>
       <c r="AE8" t="n">
-        <v>252436.6067175012</v>
+        <v>269123.2879786022</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.630371729021197e-06</v>
+        <v>8.567399996820854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.282291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>228344.4112694591</v>
+        <v>243438.5390909101</v>
       </c>
     </row>
     <row r="9">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.3296128391597</v>
+        <v>192.5253029613888</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.7349318674675</v>
+        <v>263.4216131285685</v>
       </c>
       <c r="AC9" t="n">
-        <v>223.1868962647599</v>
+        <v>238.2810240862109</v>
       </c>
       <c r="AD9" t="n">
-        <v>180329.6128391597</v>
+        <v>192525.3029613888</v>
       </c>
       <c r="AE9" t="n">
-        <v>246734.9318674675</v>
+        <v>263421.6131285685</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.691205535290947e-06</v>
+        <v>8.67995846558816e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.239583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>223186.8962647599</v>
+        <v>238281.0240862109</v>
       </c>
     </row>
     <row r="10">
@@ -5575,28 +5575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.5366563688534</v>
+        <v>188.7323464910824</v>
       </c>
       <c r="AB10" t="n">
-        <v>241.5452414913673</v>
+        <v>258.2319227524683</v>
       </c>
       <c r="AC10" t="n">
-        <v>218.4925026543768</v>
+        <v>233.5866304758278</v>
       </c>
       <c r="AD10" t="n">
-        <v>176536.6563688533</v>
+        <v>188732.3464910824</v>
       </c>
       <c r="AE10" t="n">
-        <v>241545.2414913673</v>
+        <v>258231.9227524683</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.744745120185426e-06</v>
+        <v>8.77902071507881e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>218492.5026543768</v>
+        <v>233586.6304758278</v>
       </c>
     </row>
     <row r="11">
@@ -5681,28 +5681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>172.4226596865033</v>
+        <v>184.6183498087323</v>
       </c>
       <c r="AB11" t="n">
-        <v>235.9162897338545</v>
+        <v>252.6029709949555</v>
       </c>
       <c r="AC11" t="n">
-        <v>213.4007701523159</v>
+        <v>228.4948979737669</v>
       </c>
       <c r="AD11" t="n">
-        <v>172422.6596865033</v>
+        <v>184618.3498087323</v>
       </c>
       <c r="AE11" t="n">
-        <v>235916.2897338545</v>
+        <v>252602.9709949555</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.79974354935496e-06</v>
+        <v>8.880782208424792e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.165625</v>
       </c>
       <c r="AH11" t="n">
-        <v>213400.7701523158</v>
+        <v>228494.8979737669</v>
       </c>
     </row>
     <row r="12">
@@ -5787,28 +5787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>169.9540254737555</v>
+        <v>182.1497155959845</v>
       </c>
       <c r="AB12" t="n">
-        <v>232.5385954955195</v>
+        <v>249.2252767566204</v>
       </c>
       <c r="AC12" t="n">
-        <v>210.3454383114629</v>
+        <v>225.4395661329139</v>
       </c>
       <c r="AD12" t="n">
-        <v>169954.0254737555</v>
+        <v>182149.7155959845</v>
       </c>
       <c r="AE12" t="n">
-        <v>232538.5954955195</v>
+        <v>249225.2767566204</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.823668595465844e-06</v>
+        <v>8.925049807652223e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="AH12" t="n">
-        <v>210345.4383114629</v>
+        <v>225439.5661329139</v>
       </c>
     </row>
     <row r="13">
@@ -5893,28 +5893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>166.5965599140168</v>
+        <v>178.7922500362459</v>
       </c>
       <c r="AB13" t="n">
-        <v>227.9447629957608</v>
+        <v>244.6314442568618</v>
       </c>
       <c r="AC13" t="n">
-        <v>206.1900347379952</v>
+        <v>221.2841625594463</v>
       </c>
       <c r="AD13" t="n">
-        <v>166596.5599140168</v>
+        <v>178792.2500362459</v>
       </c>
       <c r="AE13" t="n">
-        <v>227944.7629957608</v>
+        <v>244631.4442568618</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.868017461427483e-06</v>
+        <v>9.007106820854286e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.121875</v>
       </c>
       <c r="AH13" t="n">
-        <v>206190.0347379952</v>
+        <v>221284.1625594463</v>
       </c>
     </row>
     <row r="14">
@@ -5999,28 +5999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>164.6236649536758</v>
+        <v>176.8193550759049</v>
       </c>
       <c r="AB14" t="n">
-        <v>225.2453610730408</v>
+        <v>241.9320423341417</v>
       </c>
       <c r="AC14" t="n">
-        <v>203.7482599461444</v>
+        <v>218.8423877675953</v>
       </c>
       <c r="AD14" t="n">
-        <v>164623.6649536758</v>
+        <v>176819.3550759049</v>
       </c>
       <c r="AE14" t="n">
-        <v>225245.3610730408</v>
+        <v>241932.0423341417</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.879250562345399e-06</v>
+        <v>9.027890998540336e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.114583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>203748.2599461444</v>
+        <v>218842.3877675953</v>
       </c>
     </row>
     <row r="15">
@@ -6105,28 +6105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>162.0440269982443</v>
+        <v>174.2397171204734</v>
       </c>
       <c r="AB15" t="n">
-        <v>221.7157866168266</v>
+        <v>238.4024678779275</v>
       </c>
       <c r="AC15" t="n">
-        <v>200.5555431222412</v>
+        <v>215.6496709436922</v>
       </c>
       <c r="AD15" t="n">
-        <v>162044.0269982443</v>
+        <v>174239.7171204734</v>
       </c>
       <c r="AE15" t="n">
-        <v>221715.7866168266</v>
+        <v>238402.4678779275</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.907989794563962e-06</v>
+        <v>9.081066102490359e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.095833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>200555.5431222412</v>
+        <v>215649.6709436922</v>
       </c>
     </row>
     <row r="16">
@@ -6211,28 +6211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>160.5232023929703</v>
+        <v>172.7188925151993</v>
       </c>
       <c r="AB16" t="n">
-        <v>219.6349272978453</v>
+        <v>236.3216085589463</v>
       </c>
       <c r="AC16" t="n">
-        <v>198.6732780961585</v>
+        <v>213.7674059176095</v>
       </c>
       <c r="AD16" t="n">
-        <v>160523.2023929703</v>
+        <v>172718.8925151993</v>
       </c>
       <c r="AE16" t="n">
-        <v>219634.9272978453</v>
+        <v>236321.6085589463</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.918201704489339e-06</v>
+        <v>9.099960809477676e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.089583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>198673.2780961585</v>
+        <v>213767.4059176095</v>
       </c>
     </row>
     <row r="17">
@@ -6317,28 +6317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>159.0915486793796</v>
+        <v>171.2872388016086</v>
       </c>
       <c r="AB17" t="n">
-        <v>217.6760755268073</v>
+        <v>234.3627567879082</v>
       </c>
       <c r="AC17" t="n">
-        <v>196.901376388882</v>
+        <v>211.995504210333</v>
       </c>
       <c r="AD17" t="n">
-        <v>159091.5486793796</v>
+        <v>171287.2388016086</v>
       </c>
       <c r="AE17" t="n">
-        <v>217676.0755268073</v>
+        <v>234362.7567879082</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.933957222659921e-06</v>
+        <v>9.129112643115252e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.080208333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>196901.376388882</v>
+        <v>211995.504210333</v>
       </c>
     </row>
     <row r="18">
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>159.6792691556658</v>
+        <v>171.8749592778948</v>
       </c>
       <c r="AB18" t="n">
-        <v>218.4802206108592</v>
+        <v>235.1669018719601</v>
       </c>
       <c r="AC18" t="n">
-        <v>197.6287749947369</v>
+        <v>212.7229028161879</v>
       </c>
       <c r="AD18" t="n">
-        <v>159679.2691556658</v>
+        <v>171874.9592778948</v>
       </c>
       <c r="AE18" t="n">
-        <v>218480.2206108592</v>
+        <v>235166.9018719601</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.931914840674846e-06</v>
+        <v>9.125333701717788e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.081249999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>197628.7749947369</v>
+        <v>212722.9028161879</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.2776669708359</v>
+        <v>543.6541442235593</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.4479275775851</v>
+        <v>743.8515844547888</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.0753534368763</v>
+        <v>672.8594332366788</v>
       </c>
       <c r="AD2" t="n">
-        <v>508277.6669708359</v>
+        <v>543654.1442235593</v>
       </c>
       <c r="AE2" t="n">
-        <v>695447.9275775851</v>
+        <v>743851.5844547888</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.407855194408107e-06</v>
+        <v>4.589743610609549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.528125</v>
       </c>
       <c r="AH2" t="n">
-        <v>629075.3534368763</v>
+        <v>672859.4332366788</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.7007530722296</v>
+        <v>267.1429259916465</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.442121671704</v>
+        <v>365.5167368558867</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.6188735684128</v>
+        <v>330.6323324963222</v>
       </c>
       <c r="AD3" t="n">
-        <v>243700.7530722296</v>
+        <v>267142.9259916465</v>
       </c>
       <c r="AE3" t="n">
-        <v>333442.121671704</v>
+        <v>365516.7368558867</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.829478254973721e-06</v>
+        <v>7.29957656654449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>301618.8735684128</v>
+        <v>330632.3324963222</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.3256601347173</v>
+        <v>218.8530844001514</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.2531853561539</v>
+        <v>299.444445192808</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.7469164380421</v>
+        <v>270.8658876166132</v>
       </c>
       <c r="AD4" t="n">
-        <v>195325.6601347173</v>
+        <v>218853.0844001514</v>
       </c>
       <c r="AE4" t="n">
-        <v>267253.1853561539</v>
+        <v>299444.4451928079</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.327951818566951e-06</v>
+        <v>8.249744109373906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.632291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>241746.9164380421</v>
+        <v>270865.8876166132</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.4812624351502</v>
+        <v>202.8380944999921</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.5741814181238</v>
+        <v>277.5320294799311</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.1369262091777</v>
+        <v>251.0447621050977</v>
       </c>
       <c r="AD5" t="n">
-        <v>179481.2624351502</v>
+        <v>202838.0944999921</v>
       </c>
       <c r="AE5" t="n">
-        <v>245574.1814181238</v>
+        <v>277532.0294799311</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.591450105588985e-06</v>
+        <v>8.752012510760574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.423958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>222136.9262091777</v>
+        <v>251044.7621050977</v>
       </c>
     </row>
     <row r="6">
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.6906674201755</v>
+        <v>194.0474994850175</v>
       </c>
       <c r="AB6" t="n">
-        <v>233.5465015049599</v>
+        <v>265.5043495667672</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.2571511859676</v>
+        <v>240.1649870818876</v>
       </c>
       <c r="AD6" t="n">
-        <v>170690.6674201755</v>
+        <v>194047.4994850174</v>
       </c>
       <c r="AE6" t="n">
-        <v>233546.5015049599</v>
+        <v>265504.3495667672</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.746289305179252e-06</v>
+        <v>9.047159921884698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>211257.1511859676</v>
+        <v>240164.9870818876</v>
       </c>
     </row>
     <row r="7">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.2338612161256</v>
+        <v>175.9976628573937</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.7120144023976</v>
+        <v>240.8077667902731</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.2658151331904</v>
+        <v>217.8254115037026</v>
       </c>
       <c r="AD7" t="n">
-        <v>164233.8612161256</v>
+        <v>175997.6628573937</v>
       </c>
       <c r="AE7" t="n">
-        <v>224712.0144023976</v>
+        <v>240807.7667902731</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.856155715804705e-06</v>
+        <v>9.25658225648349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.237499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>203265.8151331905</v>
+        <v>217825.4115037025</v>
       </c>
     </row>
     <row r="8">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.3540137103408</v>
+        <v>171.1178153516089</v>
       </c>
       <c r="AB8" t="n">
-        <v>218.0351917613082</v>
+        <v>234.1309441491837</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.226219073985</v>
+        <v>211.7858154444971</v>
       </c>
       <c r="AD8" t="n">
-        <v>159354.0137103408</v>
+        <v>171117.8153516089</v>
       </c>
       <c r="AE8" t="n">
-        <v>218035.1917613082</v>
+        <v>234130.9441491837</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.932217077006942e-06</v>
+        <v>9.401566949667272e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>197226.219073985</v>
+        <v>211785.8154444971</v>
       </c>
     </row>
     <row r="9">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>155.1112236455166</v>
+        <v>166.8750252867848</v>
       </c>
       <c r="AB9" t="n">
-        <v>212.2300192159315</v>
+        <v>228.3257716038069</v>
       </c>
       <c r="AC9" t="n">
-        <v>191.9750840487264</v>
+        <v>206.5346804192385</v>
       </c>
       <c r="AD9" t="n">
-        <v>155111.2236455166</v>
+        <v>166875.0252867848</v>
       </c>
       <c r="AE9" t="n">
-        <v>212230.0192159315</v>
+        <v>228325.7716038069</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.995752460074682e-06</v>
+        <v>9.522675195362452e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.146875</v>
       </c>
       <c r="AH9" t="n">
-        <v>191975.0840487264</v>
+        <v>206534.6804192385</v>
       </c>
     </row>
     <row r="10">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>151.0114301644987</v>
+        <v>162.7752318057668</v>
       </c>
       <c r="AB10" t="n">
-        <v>206.6205009050823</v>
+        <v>222.7162532929578</v>
       </c>
       <c r="AC10" t="n">
-        <v>186.9009302924545</v>
+        <v>201.4605266629666</v>
       </c>
       <c r="AD10" t="n">
-        <v>151011.4301644987</v>
+        <v>162775.2318057668</v>
       </c>
       <c r="AE10" t="n">
-        <v>206620.5009050823</v>
+        <v>222716.2532929578</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.047667357403194e-06</v>
+        <v>9.621633001821224e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.114583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>186900.9302924545</v>
+        <v>201460.5266629666</v>
       </c>
     </row>
     <row r="11">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.9209841227666</v>
+        <v>159.6847857640348</v>
       </c>
       <c r="AB11" t="n">
-        <v>202.3920162899297</v>
+        <v>218.4877686778051</v>
       </c>
       <c r="AC11" t="n">
-        <v>183.0760063142552</v>
+        <v>197.6356026847673</v>
       </c>
       <c r="AD11" t="n">
-        <v>147920.9841227666</v>
+        <v>159684.7857640348</v>
       </c>
       <c r="AE11" t="n">
-        <v>202392.0162899297</v>
+        <v>218487.7686778051</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.074077552265082e-06</v>
+        <v>9.671974909176702e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.097916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>183076.0063142552</v>
+        <v>197635.6026847673</v>
       </c>
     </row>
     <row r="12">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>145.5610058863134</v>
+        <v>157.3248075275816</v>
       </c>
       <c r="AB12" t="n">
-        <v>199.1629899519244</v>
+        <v>215.2587423397998</v>
       </c>
       <c r="AC12" t="n">
-        <v>180.1551537179812</v>
+        <v>194.7147500884933</v>
       </c>
       <c r="AD12" t="n">
-        <v>145561.0058863134</v>
+        <v>157324.8075275816</v>
       </c>
       <c r="AE12" t="n">
-        <v>199162.9899519244</v>
+        <v>215258.7423397998</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.100336831727758e-06</v>
+        <v>9.72202914849015e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.082291666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>180155.1537179812</v>
+        <v>194714.7500884933</v>
       </c>
     </row>
     <row r="13">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>145.1267058686849</v>
+        <v>156.890507509953</v>
       </c>
       <c r="AB13" t="n">
-        <v>198.5687615078407</v>
+        <v>214.6645138957161</v>
       </c>
       <c r="AC13" t="n">
-        <v>179.6176376025958</v>
+        <v>194.1772339731079</v>
       </c>
       <c r="AD13" t="n">
-        <v>145126.7058686849</v>
+        <v>156890.507509953</v>
       </c>
       <c r="AE13" t="n">
-        <v>198568.7615078407</v>
+        <v>214664.5138957161</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.115881117846469e-06</v>
+        <v>9.751658956819375e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>179617.6376025958</v>
+        <v>194177.2339731079</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.4657235545047</v>
+        <v>207.3073571908656</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1306292542976</v>
+        <v>283.6470718635355</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.7813200764288</v>
+        <v>256.5761934261287</v>
       </c>
       <c r="AD2" t="n">
-        <v>186465.7235545047</v>
+        <v>207307.3571908656</v>
       </c>
       <c r="AE2" t="n">
-        <v>255130.6292542976</v>
+        <v>283647.0718635355</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.173615699235909e-06</v>
+        <v>8.888709191897486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>230781.3200764288</v>
+        <v>256576.1934261287</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.863384958791</v>
+        <v>149.6196777405803</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.3165683518542</v>
+        <v>204.7162438388945</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.4891625302604</v>
+        <v>185.1784128480215</v>
       </c>
       <c r="AD3" t="n">
-        <v>128863.384958791</v>
+        <v>149619.6777405803</v>
       </c>
       <c r="AE3" t="n">
-        <v>176316.5683518542</v>
+        <v>204716.2438388945</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.168688938696246e-06</v>
+        <v>1.100795477836142e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.393749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>159489.1625302604</v>
+        <v>185178.4128480215</v>
       </c>
     </row>
     <row r="4">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0173971357125</v>
+        <v>125.4809291354543</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.371876970456</v>
+        <v>171.688543070948</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.3525259052554</v>
+        <v>155.3028294866881</v>
       </c>
       <c r="AD4" t="n">
-        <v>115017.3971357125</v>
+        <v>125480.9291354543</v>
       </c>
       <c r="AE4" t="n">
-        <v>157371.876970456</v>
+        <v>171688.543070948</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.516265714165215e-06</v>
+        <v>1.17482023482483e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.180208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>142352.5259052555</v>
+        <v>155302.8294866881</v>
       </c>
     </row>
     <row r="5">
@@ -8501,28 +8501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.0037981954328</v>
+        <v>123.4673301951746</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.616782066651</v>
+        <v>168.933448167143</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.8603733922687</v>
+        <v>152.8106769737014</v>
       </c>
       <c r="AD5" t="n">
-        <v>113003.7981954328</v>
+        <v>123467.3301951746</v>
       </c>
       <c r="AE5" t="n">
-        <v>154616.782066651</v>
+        <v>168933.448167143</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.569816787129911e-06</v>
+        <v>1.186225211919018e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.148958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>139860.3733922687</v>
+        <v>152810.6769737014</v>
       </c>
     </row>
   </sheetData>
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.4192281439278</v>
+        <v>292.2492754279572</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.9488327151376</v>
+        <v>399.8683517686127</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.0730142946197</v>
+        <v>361.705477494572</v>
       </c>
       <c r="AD2" t="n">
-        <v>259419.2281439278</v>
+        <v>292249.2754279572</v>
       </c>
       <c r="AE2" t="n">
-        <v>354948.8327151376</v>
+        <v>399868.3517686127</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.465315938590989e-06</v>
+        <v>7.035789424779394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.842708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>321073.0142946197</v>
+        <v>361705.477494572</v>
       </c>
     </row>
     <row r="3">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.1675781107174</v>
+        <v>184.1111702031178</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.8848346996025</v>
+        <v>251.9090254833689</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.7084574932575</v>
+        <v>227.8671816478473</v>
       </c>
       <c r="AD3" t="n">
-        <v>162167.5781107174</v>
+        <v>184111.1702031178</v>
       </c>
       <c r="AE3" t="n">
-        <v>221884.8346996025</v>
+        <v>251909.0254833689</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.636853711972379e-06</v>
+        <v>9.4144161424454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>200708.4574932575</v>
+        <v>227867.1816478473</v>
       </c>
     </row>
     <row r="4">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.163290221167</v>
+        <v>164.9362901129752</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.882329599123</v>
+        <v>225.6731086080426</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.1875949848145</v>
+        <v>204.1351838567532</v>
       </c>
       <c r="AD4" t="n">
-        <v>143163.290221167</v>
+        <v>164936.2901129752</v>
       </c>
       <c r="AE4" t="n">
-        <v>195882.329599123</v>
+        <v>225673.1086080426</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039126789548468e-06</v>
+        <v>1.023116956846465e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.330208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>177187.5949848145</v>
+        <v>204135.1838567532</v>
       </c>
     </row>
     <row r="5">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.2328038396547</v>
+        <v>144.2046893944059</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.2950000298052</v>
+        <v>197.3072178912368</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.8970210796512</v>
+        <v>178.4764939381726</v>
       </c>
       <c r="AD5" t="n">
-        <v>133232.8038396547</v>
+        <v>144204.6893944059</v>
       </c>
       <c r="AE5" t="n">
-        <v>182295.0000298052</v>
+        <v>197307.2178912368</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.251782160954332e-06</v>
+        <v>1.06629334941136e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.195833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>164897.0210796512</v>
+        <v>178476.4939381726</v>
       </c>
     </row>
     <row r="6">
@@ -9222,28 +9222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.8883585372383</v>
+        <v>137.8602440919895</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.6142500698709</v>
+        <v>188.6264679313025</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.0447497123812</v>
+        <v>170.6242225709026</v>
       </c>
       <c r="AD6" t="n">
-        <v>126888.3585372383</v>
+        <v>137860.2440919895</v>
       </c>
       <c r="AE6" t="n">
-        <v>173614.2500698709</v>
+        <v>188626.4679313025</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.369225922889842e-06</v>
+        <v>1.090138493486972e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>157044.7497123812</v>
+        <v>170624.2225709026</v>
       </c>
     </row>
     <row r="7">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.3193660903243</v>
+        <v>135.2912516450756</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.0992412680571</v>
+        <v>185.1114591294887</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.8652084172655</v>
+        <v>167.444681275787</v>
       </c>
       <c r="AD7" t="n">
-        <v>124319.3660903243</v>
+        <v>135291.2516450756</v>
       </c>
       <c r="AE7" t="n">
-        <v>170099.2412680571</v>
+        <v>185111.4591294887</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.41884550955121e-06</v>
+        <v>1.100212985085447e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.096875</v>
       </c>
       <c r="AH7" t="n">
-        <v>153865.2084172655</v>
+        <v>167444.6812757869</v>
       </c>
     </row>
   </sheetData>
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6216039819608</v>
+        <v>153.7145805759475</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8269735371599</v>
+        <v>210.3190705526043</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3782237820936</v>
+        <v>190.2465136437932</v>
       </c>
       <c r="AD2" t="n">
-        <v>133621.6039819608</v>
+        <v>153714.5805759475</v>
       </c>
       <c r="AE2" t="n">
-        <v>182826.9735371599</v>
+        <v>210319.0705526043</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794455701715354e-06</v>
+        <v>1.067631637525755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>165378.2237820936</v>
+        <v>190246.5136437932</v>
       </c>
     </row>
     <row r="3">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.4331394541646</v>
+        <v>114.479717259709</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.8900286660758</v>
+        <v>156.6361996433464</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.2528048776389</v>
+        <v>141.6870605897153</v>
       </c>
       <c r="AD3" t="n">
-        <v>104433.1394541646</v>
+        <v>114479.717259709</v>
       </c>
       <c r="AE3" t="n">
-        <v>142890.0286660758</v>
+        <v>156636.1996433464</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.628890026775871e-06</v>
+        <v>1.253443863208292e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.236458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129252.8048776389</v>
+        <v>141687.0605897153</v>
       </c>
     </row>
     <row r="4">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1331156977794</v>
+        <v>114.1796935033238</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.4795229264758</v>
+        <v>156.2256939037463</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8814772296778</v>
+        <v>141.3157329417541</v>
       </c>
       <c r="AD4" t="n">
-        <v>104133.1156977794</v>
+        <v>114179.6935033238</v>
       </c>
       <c r="AE4" t="n">
-        <v>142479.5229264758</v>
+        <v>156225.6939037463</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.657398262991521e-06</v>
+        <v>1.259792090579127e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.219791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>128881.4772296778</v>
+        <v>141315.7329417541</v>
       </c>
     </row>
   </sheetData>
@@ -10134,28 +10134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.7194381690205</v>
+        <v>614.1430186248164</v>
       </c>
       <c r="AB2" t="n">
-        <v>775.4105371999214</v>
+        <v>840.2975721602521</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.4064438250844</v>
+        <v>760.1007512383266</v>
       </c>
       <c r="AD2" t="n">
-        <v>566719.4381690205</v>
+        <v>614143.0186248163</v>
       </c>
       <c r="AE2" t="n">
-        <v>775410.5371999213</v>
+        <v>840297.5721602521</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.25386523670744e-06</v>
+        <v>4.261526503538419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.912500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>701406.4438250844</v>
+        <v>760100.7512383265</v>
       </c>
     </row>
     <row r="3">
@@ -10240,28 +10240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.8059180342131</v>
+        <v>280.4751273433793</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.3731865317545</v>
+        <v>383.7584429205399</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.8386227646334</v>
+        <v>347.1330757365602</v>
       </c>
       <c r="AD3" t="n">
-        <v>256805.918034213</v>
+        <v>280475.1273433793</v>
       </c>
       <c r="AE3" t="n">
-        <v>351373.1865317545</v>
+        <v>383758.4429205399</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.712970030955469e-06</v>
+        <v>7.020348837215979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>317838.6227646334</v>
+        <v>347133.0757365602</v>
       </c>
     </row>
     <row r="4">
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.9466959007531</v>
+        <v>227.7011565559364</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.0488668244936</v>
+        <v>311.550767865741</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.4168346223902</v>
+        <v>281.8167998449759</v>
       </c>
       <c r="AD4" t="n">
-        <v>203946.6959007531</v>
+        <v>227701.1565559364</v>
       </c>
       <c r="AE4" t="n">
-        <v>279048.8668244936</v>
+        <v>311550.767865741</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.231044959950464e-06</v>
+        <v>7.999906090584067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.682291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>252416.8346223902</v>
+        <v>281816.7998449759</v>
       </c>
     </row>
     <row r="5">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.0922938854844</v>
+        <v>210.6761623400755</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.9879304234757</v>
+        <v>288.2564196898763</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.5568016252506</v>
+        <v>260.7456315651853</v>
       </c>
       <c r="AD5" t="n">
-        <v>187092.2938854844</v>
+        <v>210676.1623400755</v>
       </c>
       <c r="AE5" t="n">
-        <v>255987.9304234757</v>
+        <v>288256.4196898763</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.495466574980242e-06</v>
+        <v>8.499864873480942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.465625000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>231556.8016252506</v>
+        <v>260745.6315651853</v>
       </c>
     </row>
     <row r="6">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.9989892476719</v>
+        <v>200.5828577022631</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.1778257328537</v>
+        <v>274.4463149992543</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.0647139436935</v>
+        <v>248.2535438836282</v>
       </c>
       <c r="AD6" t="n">
-        <v>176998.9892476719</v>
+        <v>200582.8577022631</v>
       </c>
       <c r="AE6" t="n">
-        <v>242177.8257328537</v>
+        <v>274446.3149992543</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.666263794643142e-06</v>
+        <v>8.822802051121345e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.338541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>219064.7139436935</v>
+        <v>248253.5438836282</v>
       </c>
     </row>
     <row r="7">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.7900112790968</v>
+        <v>182.6673311152395</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.6824281554777</v>
+        <v>249.9335011456499</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.3801051877342</v>
+        <v>226.0801985802537</v>
       </c>
       <c r="AD7" t="n">
-        <v>170790.0112790968</v>
+        <v>182667.3311152395</v>
       </c>
       <c r="AE7" t="n">
-        <v>233682.4281554777</v>
+        <v>249933.5011456499</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.771703409233636e-06</v>
+        <v>9.022163443622646e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.264583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>211380.1051877342</v>
+        <v>226080.1985802537</v>
       </c>
     </row>
     <row r="8">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.076676237408</v>
+        <v>176.9539960735507</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.8651910968902</v>
+        <v>242.1162640870623</v>
       </c>
       <c r="AC8" t="n">
-        <v>204.3089342624546</v>
+        <v>219.0090276549741</v>
       </c>
       <c r="AD8" t="n">
-        <v>165076.676237408</v>
+        <v>176953.9960735507</v>
       </c>
       <c r="AE8" t="n">
-        <v>225865.1910968902</v>
+        <v>242116.2640870623</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.862635729334374e-06</v>
+        <v>9.194094970772703e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.204166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>204308.9342624546</v>
+        <v>219009.0276549741</v>
       </c>
     </row>
     <row r="9">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.6283160246964</v>
+        <v>173.5056358608391</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.1469925229448</v>
+        <v>237.3980655131169</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.0410339383718</v>
+        <v>214.7411273308913</v>
       </c>
       <c r="AD9" t="n">
-        <v>161628.3160246964</v>
+        <v>173505.6358608391</v>
       </c>
       <c r="AE9" t="n">
-        <v>221146.9925229448</v>
+        <v>237398.0655131169</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.910644404913875e-06</v>
+        <v>9.284868030337124e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.172916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>200041.0339383718</v>
+        <v>214741.1273308913</v>
       </c>
     </row>
     <row r="10">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>157.7226135808744</v>
+        <v>169.5999334170171</v>
       </c>
       <c r="AB10" t="n">
-        <v>215.8030381318792</v>
+        <v>232.0541111220513</v>
       </c>
       <c r="AC10" t="n">
-        <v>195.2070990541007</v>
+        <v>209.9071924466201</v>
       </c>
       <c r="AD10" t="n">
-        <v>157722.6135808744</v>
+        <v>169599.9334170171</v>
       </c>
       <c r="AE10" t="n">
-        <v>215803.0381318792</v>
+        <v>232054.1111220513</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.962392073918572e-06</v>
+        <v>9.382710642827124e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.139583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>195207.0990541007</v>
+        <v>209907.1924466201</v>
       </c>
     </row>
     <row r="11">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>154.5157083804008</v>
+        <v>166.3930282165435</v>
       </c>
       <c r="AB11" t="n">
-        <v>211.4152089579211</v>
+        <v>227.6662819480933</v>
       </c>
       <c r="AC11" t="n">
-        <v>191.2380381381469</v>
+        <v>205.9381315306664</v>
       </c>
       <c r="AD11" t="n">
-        <v>154515.7083804008</v>
+        <v>166393.0282165435</v>
       </c>
       <c r="AE11" t="n">
-        <v>211415.2089579211</v>
+        <v>227666.2819480933</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.002474083436661e-06</v>
+        <v>9.458496250189321e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.114583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>191238.0381381469</v>
+        <v>205938.1315306664</v>
       </c>
     </row>
     <row r="12">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>150.6040258659662</v>
+        <v>162.4813457021089</v>
       </c>
       <c r="AB12" t="n">
-        <v>206.0630723704213</v>
+        <v>222.3141453605933</v>
       </c>
       <c r="AC12" t="n">
-        <v>186.3967019547854</v>
+        <v>201.0967953473049</v>
       </c>
       <c r="AD12" t="n">
-        <v>150604.0258659662</v>
+        <v>162481.3457021089</v>
       </c>
       <c r="AE12" t="n">
-        <v>206063.0723704213</v>
+        <v>222314.1453605933</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.045995966905928e-06</v>
+        <v>9.540785846243048e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.0875</v>
       </c>
       <c r="AH12" t="n">
-        <v>186396.7019547854</v>
+        <v>201096.7953473049</v>
       </c>
     </row>
     <row r="13">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>149.2934767663285</v>
+        <v>161.1707966024712</v>
       </c>
       <c r="AB13" t="n">
-        <v>204.2699212749521</v>
+        <v>220.5209942651243</v>
       </c>
       <c r="AC13" t="n">
-        <v>184.7746866831639</v>
+        <v>199.4747800756834</v>
       </c>
       <c r="AD13" t="n">
-        <v>149293.4767663285</v>
+        <v>161170.7966024712</v>
       </c>
       <c r="AE13" t="n">
-        <v>204269.9212749521</v>
+        <v>220520.9942651243</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.052875714808286e-06</v>
+        <v>9.553793823626111e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>184774.6866831639</v>
+        <v>199474.7800756834</v>
       </c>
     </row>
     <row r="14">
@@ -11406,28 +11406,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>148.309212360036</v>
+        <v>160.1865321961787</v>
       </c>
       <c r="AB14" t="n">
-        <v>202.9232072915825</v>
+        <v>219.1742802817546</v>
       </c>
       <c r="AC14" t="n">
-        <v>183.5565011922417</v>
+        <v>198.2565945847611</v>
       </c>
       <c r="AD14" t="n">
-        <v>148309.212360036</v>
+        <v>160186.5321961787</v>
       </c>
       <c r="AE14" t="n">
-        <v>202923.2072915825</v>
+        <v>219174.2802817546</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.073514958515362e-06</v>
+        <v>9.592817755775302e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.070833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>183556.5011922417</v>
+        <v>198256.5945847611</v>
       </c>
     </row>
   </sheetData>
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7763193133137</v>
+        <v>132.375497282911</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.3055354244759</v>
+        <v>181.1219953771732</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5788316927853</v>
+        <v>163.8359663447436</v>
       </c>
       <c r="AD2" t="n">
-        <v>112776.3193133137</v>
+        <v>132375.497282911</v>
       </c>
       <c r="AE2" t="n">
-        <v>154305.5354244758</v>
+        <v>181121.9953771732</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.188999542922674e-06</v>
+        <v>1.189612780844819e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.592708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>139578.8316927853</v>
+        <v>163835.9663447436</v>
       </c>
     </row>
     <row r="3">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.87849620694978</v>
+        <v>108.6781747002995</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.2899207216753</v>
+        <v>148.6982731675723</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.3780405686311</v>
+        <v>134.5067186758368</v>
       </c>
       <c r="AD3" t="n">
-        <v>98878.49620694977</v>
+        <v>108678.1747002995</v>
       </c>
       <c r="AE3" t="n">
-        <v>135289.9207216753</v>
+        <v>148698.2731675723</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.66331394355546e-06</v>
+        <v>1.298352523152389e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122378.0405686311</v>
+        <v>134506.7186758368</v>
       </c>
     </row>
   </sheetData>
@@ -12106,28 +12106,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.4588407932393</v>
+        <v>400.6447127932103</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.4051529963557</v>
+        <v>548.1797712409468</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.5517489209348</v>
+        <v>495.8622632488513</v>
       </c>
       <c r="AD2" t="n">
-        <v>366458.8407932394</v>
+        <v>400644.7127932103</v>
       </c>
       <c r="AE2" t="n">
-        <v>501405.1529963557</v>
+        <v>548179.7712409468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.888530776302903e-06</v>
+        <v>5.66148040224848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.607291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>453551.7489209347</v>
+        <v>495862.2632488513</v>
       </c>
     </row>
     <row r="3">
@@ -12212,28 +12212,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.6613218669059</v>
+        <v>218.4519032002196</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.7124525464846</v>
+        <v>298.8955313761961</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.1623518123134</v>
+        <v>270.3693613642532</v>
       </c>
       <c r="AD3" t="n">
-        <v>195661.3218669059</v>
+        <v>218451.9032002196</v>
       </c>
       <c r="AE3" t="n">
-        <v>267712.4525464846</v>
+        <v>298895.5313761961</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.206460843587362e-06</v>
+        <v>8.244605120419234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>242162.3518123134</v>
+        <v>270369.3613642532</v>
       </c>
     </row>
     <row r="4">
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.5889514991875</v>
+        <v>192.2089406319089</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.0390851775887</v>
+        <v>262.9887522324534</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.8936005572081</v>
+        <v>237.8894748264968</v>
       </c>
       <c r="AD4" t="n">
-        <v>169588.9514991874</v>
+        <v>192208.9406319089</v>
       </c>
       <c r="AE4" t="n">
-        <v>232039.0851775887</v>
+        <v>262988.7522324534</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.651161173039173e-06</v>
+        <v>9.116211620415502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.482291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>209893.6005572081</v>
+        <v>237889.4748264968</v>
       </c>
     </row>
     <row r="5">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.9599265727095</v>
+        <v>179.5799157054309</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.7594961199324</v>
+        <v>245.709163174797</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.2631512271534</v>
+        <v>222.2590254964421</v>
       </c>
       <c r="AD5" t="n">
-        <v>156959.9265727095</v>
+        <v>179579.915705431</v>
       </c>
       <c r="AE5" t="n">
-        <v>214759.4961199324</v>
+        <v>245709.163174797</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.895279885360622e-06</v>
+        <v>9.594680922861005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.308333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>194263.1512271534</v>
+        <v>222259.0254964421</v>
       </c>
     </row>
     <row r="6">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.5141960854492</v>
+        <v>160.909576260657</v>
       </c>
       <c r="AB6" t="n">
-        <v>204.571919184822</v>
+        <v>220.1635810692262</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.0478623363727</v>
+        <v>199.1514778935691</v>
       </c>
       <c r="AD6" t="n">
-        <v>149514.1960854492</v>
+        <v>160909.576260657</v>
       </c>
       <c r="AE6" t="n">
-        <v>204571.919184822</v>
+        <v>220163.5810692261</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.034443100346417e-06</v>
+        <v>9.86743890100669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>185047.8623363727</v>
+        <v>199151.4778935691</v>
       </c>
     </row>
     <row r="7">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.8086585135084</v>
+        <v>155.2040386887163</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.7653509683437</v>
+        <v>212.3570128527478</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.9863420338853</v>
+        <v>192.0899575910817</v>
       </c>
       <c r="AD7" t="n">
-        <v>143808.6585135084</v>
+        <v>155204.0386887163</v>
       </c>
       <c r="AE7" t="n">
-        <v>196765.3509683437</v>
+        <v>212357.0128527478</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.131468626772266e-06</v>
+        <v>1.005760759191497e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>177986.3420338853</v>
+        <v>192089.9575910817</v>
       </c>
     </row>
     <row r="8">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.6160448858239</v>
+        <v>150.0114250610318</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.6605879210039</v>
+        <v>205.252249805408</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.5596476001838</v>
+        <v>185.6632631573802</v>
       </c>
       <c r="AD8" t="n">
-        <v>138616.0448858239</v>
+        <v>150011.4250610318</v>
       </c>
       <c r="AE8" t="n">
-        <v>189660.5879210039</v>
+        <v>205252.249805408</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.207658543356668e-06</v>
+        <v>1.020693877548076e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.110416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>171559.6476001838</v>
+        <v>185663.2631573802</v>
       </c>
     </row>
     <row r="9">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.4373578257168</v>
+        <v>146.8327380009247</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.3113680515917</v>
+        <v>200.9030299359959</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.6255111709385</v>
+        <v>181.7291267281349</v>
       </c>
       <c r="AD9" t="n">
-        <v>135437.3578257168</v>
+        <v>146832.7380009247</v>
       </c>
       <c r="AE9" t="n">
-        <v>185311.3680515917</v>
+        <v>200903.0299359959</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.246686439402963e-06</v>
+        <v>1.028343291236855e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.0875</v>
       </c>
       <c r="AH9" t="n">
-        <v>167625.5111709385</v>
+        <v>181729.1267281349</v>
       </c>
     </row>
     <row r="10">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>135.3246781622676</v>
+        <v>146.7200583374755</v>
       </c>
       <c r="AB10" t="n">
-        <v>185.1571947649846</v>
+        <v>200.7488566493887</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.4860519664215</v>
+        <v>181.5896675236179</v>
       </c>
       <c r="AD10" t="n">
-        <v>135324.6781622676</v>
+        <v>146720.0583374755</v>
       </c>
       <c r="AE10" t="n">
-        <v>185157.1947649846</v>
+        <v>200748.8566493887</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.257570713200734e-06</v>
+        <v>1.030476593859223e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.080208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>167486.0519664215</v>
+        <v>181589.6675236179</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.5734176903491</v>
+        <v>494.4257981423422</v>
       </c>
       <c r="AB2" t="n">
-        <v>628.8086250321909</v>
+        <v>676.4951895451167</v>
       </c>
       <c r="AC2" t="n">
-        <v>568.796012397566</v>
+        <v>611.9314381218917</v>
       </c>
       <c r="AD2" t="n">
-        <v>459573.417690349</v>
+        <v>494425.7981423422</v>
       </c>
       <c r="AE2" t="n">
-        <v>628808.6250321909</v>
+        <v>676495.1895451166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.560679556237152e-06</v>
+        <v>4.923426472839952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.196874999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>568796.012397566</v>
+        <v>611931.4381218917</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.0490229987806</v>
+        <v>254.2555261847688</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.1314664302815</v>
+        <v>347.8836278879992</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.960322967569</v>
+        <v>314.6821027002107</v>
       </c>
       <c r="AD3" t="n">
-        <v>231049.0229987806</v>
+        <v>254255.5261847688</v>
       </c>
       <c r="AE3" t="n">
-        <v>316131.4664302815</v>
+        <v>347883.6278879992</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950101114595245e-06</v>
+        <v>7.594871584233359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.017708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>285960.322967569</v>
+        <v>314682.1027002108</v>
       </c>
     </row>
     <row r="4">
@@ -13463,28 +13463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.600877878194</v>
+        <v>209.8926324102029</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.3155533625572</v>
+        <v>287.1843594729241</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.9485952873388</v>
+        <v>259.7758872706927</v>
       </c>
       <c r="AD4" t="n">
-        <v>186600.877878194</v>
+        <v>209892.6324102029</v>
       </c>
       <c r="AE4" t="n">
-        <v>255315.5533625572</v>
+        <v>287184.3594729241</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.433961078339248e-06</v>
+        <v>8.525190627411589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.579166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>230948.5952873388</v>
+        <v>259775.8872706927</v>
       </c>
     </row>
     <row r="5">
@@ -13569,28 +13569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.8964051204957</v>
+        <v>195.0175674519124</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.1962450199304</v>
+        <v>266.8316393554505</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.7494454952993</v>
+        <v>241.3656021960022</v>
       </c>
       <c r="AD5" t="n">
-        <v>171896.4051204957</v>
+        <v>195017.5674519124</v>
       </c>
       <c r="AE5" t="n">
-        <v>235196.2450199304</v>
+        <v>266831.6393554505</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.690973596864478e-06</v>
+        <v>9.019349388696749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>212749.4454952993</v>
+        <v>241365.6021960022</v>
       </c>
     </row>
     <row r="6">
@@ -13675,28 +13675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.9420462412719</v>
+        <v>175.5880130158274</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.3127402798349</v>
+        <v>240.2472658045668</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.9046471725003</v>
+        <v>217.3184039454038</v>
       </c>
       <c r="AD6" t="n">
-        <v>163942.0462412719</v>
+        <v>175588.0130158274</v>
       </c>
       <c r="AE6" t="n">
-        <v>224312.740279835</v>
+        <v>240247.2658045668</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.836162055758695e-06</v>
+        <v>9.298503685972837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>202904.6471725003</v>
+        <v>217318.4039454038</v>
       </c>
     </row>
     <row r="7">
@@ -13781,28 +13781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.4613358186459</v>
+        <v>169.1073025932013</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.445546370837</v>
+        <v>231.3800718955689</v>
       </c>
       <c r="AC7" t="n">
-        <v>194.8837258049894</v>
+        <v>209.297482577893</v>
       </c>
       <c r="AD7" t="n">
-        <v>157461.3358186459</v>
+        <v>169107.3025932013</v>
       </c>
       <c r="AE7" t="n">
-        <v>215445.546370837</v>
+        <v>231380.0718955689</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.945396184853296e-06</v>
+        <v>9.50852848255936e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.209375</v>
       </c>
       <c r="AH7" t="n">
-        <v>194883.7258049894</v>
+        <v>209297.482577893</v>
       </c>
     </row>
     <row r="8">
@@ -13887,28 +13887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.5687274392969</v>
+        <v>164.2146942138523</v>
       </c>
       <c r="AB8" t="n">
-        <v>208.751263739567</v>
+        <v>224.6857892642989</v>
       </c>
       <c r="AC8" t="n">
-        <v>188.8283361125611</v>
+        <v>203.2420928854647</v>
       </c>
       <c r="AD8" t="n">
-        <v>152568.7274392969</v>
+        <v>164214.6942138523</v>
       </c>
       <c r="AE8" t="n">
-        <v>208751.263739567</v>
+        <v>224685.7892642989</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.021113565829608e-06</v>
+        <v>9.654110524265774e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.160416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>188828.3361125611</v>
+        <v>203242.0928854647</v>
       </c>
     </row>
     <row r="9">
@@ -13993,28 +13993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.8164372533775</v>
+        <v>159.4624040279329</v>
       </c>
       <c r="AB9" t="n">
-        <v>202.2489706509491</v>
+        <v>218.183496175681</v>
       </c>
       <c r="AC9" t="n">
-        <v>182.9466127502931</v>
+        <v>197.3603695231967</v>
       </c>
       <c r="AD9" t="n">
-        <v>147816.4372533775</v>
+        <v>159462.4040279329</v>
       </c>
       <c r="AE9" t="n">
-        <v>202248.9706509491</v>
+        <v>218183.496175681</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.088908806341598e-06</v>
+        <v>9.78446064209144e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.11875</v>
       </c>
       <c r="AH9" t="n">
-        <v>182946.6127502931</v>
+        <v>197360.3695231967</v>
       </c>
     </row>
     <row r="10">
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.8126349178214</v>
+        <v>156.4586016923769</v>
       </c>
       <c r="AB10" t="n">
-        <v>198.1390357770371</v>
+        <v>214.0735613017689</v>
       </c>
       <c r="AC10" t="n">
-        <v>179.2289242924161</v>
+        <v>193.6426810653196</v>
       </c>
       <c r="AD10" t="n">
-        <v>144812.6349178214</v>
+        <v>156458.6016923769</v>
       </c>
       <c r="AE10" t="n">
-        <v>198139.0357770371</v>
+        <v>214073.5613017689</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.122730252170051e-06</v>
+        <v>9.849489240197727e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.097916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>179228.9242924161</v>
+        <v>193642.6810653196</v>
       </c>
     </row>
     <row r="11">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.5155877309956</v>
+        <v>154.161554505551</v>
       </c>
       <c r="AB11" t="n">
-        <v>194.9961144774538</v>
+        <v>210.9306400021856</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.3859589905463</v>
+        <v>190.7997157634499</v>
       </c>
       <c r="AD11" t="n">
-        <v>142515.5877309956</v>
+        <v>154161.554505551</v>
       </c>
       <c r="AE11" t="n">
-        <v>194996.1144774538</v>
+        <v>210930.6400021857</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.146191975852853e-06</v>
+        <v>9.8945991686138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>176385.9589905463</v>
+        <v>190799.7157634498</v>
       </c>
     </row>
     <row r="12">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>141.6194644606124</v>
+        <v>153.2654312351678</v>
       </c>
       <c r="AB12" t="n">
-        <v>193.7699990847476</v>
+        <v>209.7045246094794</v>
       </c>
       <c r="AC12" t="n">
-        <v>175.2768623300558</v>
+        <v>189.6906191029593</v>
       </c>
       <c r="AD12" t="n">
-        <v>141619.4644606124</v>
+        <v>153265.4312351678</v>
       </c>
       <c r="AE12" t="n">
-        <v>193769.9990847476</v>
+        <v>209704.5246094794</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.161883907926414e-06</v>
+        <v>9.924770094762212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.073958333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>175276.8623300558</v>
+        <v>189690.6191029593</v>
       </c>
     </row>
   </sheetData>
@@ -14608,28 +14608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>717.9438772794399</v>
+        <v>766.315299036918</v>
       </c>
       <c r="AB2" t="n">
-        <v>982.3224863421963</v>
+        <v>1048.506399587296</v>
       </c>
       <c r="AC2" t="n">
-        <v>888.5710069439649</v>
+        <v>948.4384203986579</v>
       </c>
       <c r="AD2" t="n">
-        <v>717943.8772794399</v>
+        <v>766315.299036918</v>
       </c>
       <c r="AE2" t="n">
-        <v>982322.4863421962</v>
+        <v>1048506.399587296</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.975772302997634e-06</v>
+        <v>3.680713945220306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.752083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>888571.0069439649</v>
+        <v>948438.4203986579</v>
       </c>
     </row>
     <row r="3">
@@ -14714,28 +14714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.8492870501383</v>
+        <v>307.9497465828568</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.375117088748</v>
+        <v>421.3504290586485</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.3091410016975</v>
+        <v>381.1373354783316</v>
       </c>
       <c r="AD3" t="n">
-        <v>283849.2870501383</v>
+        <v>307949.7465828569</v>
       </c>
       <c r="AE3" t="n">
-        <v>388375.117088748</v>
+        <v>421350.4290586485</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.497746353014419e-06</v>
+        <v>6.516036164112103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.379166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>351309.1410016975</v>
+        <v>381137.3354783317</v>
       </c>
     </row>
     <row r="4">
@@ -14820,28 +14820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.5550998467505</v>
+        <v>246.7408107254893</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.5097060482372</v>
+        <v>337.60166267077</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.4477270851401</v>
+        <v>305.3814338124818</v>
       </c>
       <c r="AD4" t="n">
-        <v>222555.0998467505</v>
+        <v>246740.8107254893</v>
       </c>
       <c r="AE4" t="n">
-        <v>304509.7060482372</v>
+        <v>337601.66267077</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.033745909759461e-06</v>
+        <v>7.514562684678344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.797916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>275447.7270851401</v>
+        <v>305381.4338124818</v>
       </c>
     </row>
     <row r="5">
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.8690046189413</v>
+        <v>227.0547154976801</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.5743220683356</v>
+        <v>310.6662786908684</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.0830183482229</v>
+        <v>281.0167250755645</v>
       </c>
       <c r="AD5" t="n">
-        <v>202869.0046189413</v>
+        <v>227054.7154976801</v>
       </c>
       <c r="AE5" t="n">
-        <v>277574.3220683356</v>
+        <v>310666.2786908684</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.312406859013741e-06</v>
+        <v>8.033686897702494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.552083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>251083.0183482229</v>
+        <v>281016.7250755645</v>
       </c>
     </row>
     <row r="6">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>191.6244463447074</v>
+        <v>215.6395650228539</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.1890213626365</v>
+        <v>295.0475662103225</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.1660691484658</v>
+        <v>266.8886405931563</v>
       </c>
       <c r="AD6" t="n">
-        <v>191624.4463447074</v>
+        <v>215639.5650228539</v>
       </c>
       <c r="AE6" t="n">
-        <v>262189.0213626365</v>
+        <v>295047.5662103225</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.487544162740311e-06</v>
+        <v>8.359954411006855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.413541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>237166.0691484658</v>
+        <v>266888.6405931563</v>
       </c>
     </row>
     <row r="7">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.9646574550723</v>
+        <v>207.9797761332188</v>
       </c>
       <c r="AB7" t="n">
-        <v>251.7085602778069</v>
+        <v>284.5671051254928</v>
       </c>
       <c r="AC7" t="n">
-        <v>227.6858485601494</v>
+        <v>257.40842000484</v>
       </c>
       <c r="AD7" t="n">
-        <v>183964.6574550723</v>
+        <v>207979.7761332188</v>
       </c>
       <c r="AE7" t="n">
-        <v>251708.5602778069</v>
+        <v>284567.1051254928</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.609449137374506e-06</v>
+        <v>8.587054132693936e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.322916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>227685.8485601494</v>
+        <v>257408.42000484</v>
       </c>
     </row>
     <row r="8">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.7113707753321</v>
+        <v>189.8043157232524</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.1525375670526</v>
+        <v>259.6986383478674</v>
       </c>
       <c r="AC8" t="n">
-        <v>219.9464006484534</v>
+        <v>234.9133647933508</v>
       </c>
       <c r="AD8" t="n">
-        <v>177711.3707753321</v>
+        <v>189804.3157232525</v>
       </c>
       <c r="AE8" t="n">
-        <v>243152.5375670526</v>
+        <v>259698.6383478674</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.71003177024518e-06</v>
+        <v>8.774431948898959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.252083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>219946.4006484534</v>
+        <v>234913.3647933508</v>
       </c>
     </row>
     <row r="9">
@@ -15350,28 +15350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>173.8927143535769</v>
+        <v>185.9856593014974</v>
       </c>
       <c r="AB9" t="n">
-        <v>237.9276833835784</v>
+        <v>254.4737841643932</v>
       </c>
       <c r="AC9" t="n">
-        <v>215.2201992151195</v>
+        <v>230.1871633600168</v>
       </c>
       <c r="AD9" t="n">
-        <v>173892.7143535769</v>
+        <v>185985.6593014974</v>
       </c>
       <c r="AE9" t="n">
-        <v>237927.6833835784</v>
+        <v>254473.7841643932</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.766646263893147e-06</v>
+        <v>8.879900456558219e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.213541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>215220.1992151195</v>
+        <v>230187.1633600168</v>
       </c>
     </row>
     <row r="10">
@@ -15456,28 +15456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>169.8644724261279</v>
+        <v>181.9574173740483</v>
       </c>
       <c r="AB10" t="n">
-        <v>232.4160650649539</v>
+        <v>248.9621658457687</v>
       </c>
       <c r="AC10" t="n">
-        <v>210.2346020132178</v>
+        <v>225.2015661581152</v>
       </c>
       <c r="AD10" t="n">
-        <v>169864.4724261279</v>
+        <v>181957.4173740483</v>
       </c>
       <c r="AE10" t="n">
-        <v>232416.0650649539</v>
+        <v>248962.1658457687</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.82370190943967e-06</v>
+        <v>8.986190796744694e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.175</v>
       </c>
       <c r="AH10" t="n">
-        <v>210234.6020132178</v>
+        <v>225201.5661581152</v>
       </c>
     </row>
     <row r="11">
@@ -15562,28 +15562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>166.6131956605456</v>
+        <v>178.706140608466</v>
       </c>
       <c r="AB11" t="n">
-        <v>227.9675247580788</v>
+        <v>244.5136255388936</v>
       </c>
       <c r="AC11" t="n">
-        <v>206.2106241496639</v>
+        <v>221.1775882945613</v>
       </c>
       <c r="AD11" t="n">
-        <v>166613.1956605456</v>
+        <v>178706.140608466</v>
       </c>
       <c r="AE11" t="n">
-        <v>227967.5247580788</v>
+        <v>244513.6255388936</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.866052491701007e-06</v>
+        <v>9.065086719357336e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.147916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>206210.624149664</v>
+        <v>221177.5882945613</v>
       </c>
     </row>
     <row r="12">
@@ -15668,28 +15668,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>163.7571237860621</v>
+        <v>175.8500687339825</v>
       </c>
       <c r="AB12" t="n">
-        <v>224.059721218414</v>
+        <v>240.6058219992288</v>
       </c>
       <c r="AC12" t="n">
-        <v>202.6757758951867</v>
+        <v>217.6427400400841</v>
       </c>
       <c r="AD12" t="n">
-        <v>163757.1237860621</v>
+        <v>175850.0687339825</v>
       </c>
       <c r="AE12" t="n">
-        <v>224059.721218414</v>
+        <v>240605.8219992288</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.888698289160194e-06</v>
+        <v>9.107274122421041e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>202675.7758951868</v>
+        <v>217642.7400400841</v>
       </c>
     </row>
     <row r="13">
@@ -15774,28 +15774,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>160.4939614458943</v>
+        <v>172.5869063938148</v>
       </c>
       <c r="AB13" t="n">
-        <v>219.5949185440365</v>
+        <v>236.1410193248513</v>
       </c>
       <c r="AC13" t="n">
-        <v>198.6370877216605</v>
+        <v>213.6040518665579</v>
       </c>
       <c r="AD13" t="n">
-        <v>160493.9614458943</v>
+        <v>172586.9063938147</v>
       </c>
       <c r="AE13" t="n">
-        <v>219594.9185440365</v>
+        <v>236141.0193248513</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.930460668890123e-06</v>
+        <v>9.185074268330729e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.107291666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>198637.0877216605</v>
+        <v>213604.0518665579</v>
       </c>
     </row>
     <row r="14">
@@ -15880,28 +15880,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>158.3370513440378</v>
+        <v>170.4299962919583</v>
       </c>
       <c r="AB14" t="n">
-        <v>216.64373898652</v>
+        <v>233.1898397673347</v>
       </c>
       <c r="AC14" t="n">
-        <v>195.9675645991059</v>
+        <v>210.9345287440033</v>
       </c>
       <c r="AD14" t="n">
-        <v>158337.0513440378</v>
+        <v>170429.9962919583</v>
       </c>
       <c r="AE14" t="n">
-        <v>216643.73898652</v>
+        <v>233189.8397673347</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.946048035972421e-06</v>
+        <v>9.214112350958993e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.096875</v>
       </c>
       <c r="AH14" t="n">
-        <v>195967.5645991059</v>
+        <v>210934.5287440033</v>
       </c>
     </row>
     <row r="15">
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>155.945956957623</v>
+        <v>168.0389019055434</v>
       </c>
       <c r="AB15" t="n">
-        <v>213.3721381593894</v>
+        <v>229.9182389402042</v>
       </c>
       <c r="AC15" t="n">
-        <v>193.008200763195</v>
+        <v>207.9751649080924</v>
       </c>
       <c r="AD15" t="n">
-        <v>155945.956957623</v>
+        <v>168038.9019055433</v>
       </c>
       <c r="AE15" t="n">
-        <v>213372.1381593894</v>
+        <v>229918.2389402042</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.975605213175645e-06</v>
+        <v>9.269175130282398e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.078125</v>
       </c>
       <c r="AH15" t="n">
-        <v>193008.2007631951</v>
+        <v>207975.1649080924</v>
       </c>
     </row>
     <row r="16">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>155.8050947315837</v>
+        <v>167.8980396795041</v>
       </c>
       <c r="AB16" t="n">
-        <v>213.1794042473198</v>
+        <v>229.7255050281346</v>
       </c>
       <c r="AC16" t="n">
-        <v>192.8338611051896</v>
+        <v>207.8008252500869</v>
       </c>
       <c r="AD16" t="n">
-        <v>155805.0947315837</v>
+        <v>167898.0396795041</v>
       </c>
       <c r="AE16" t="n">
-        <v>213179.4042473198</v>
+        <v>229725.5050281346</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.969870238494423e-06</v>
+        <v>9.258491307428602e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.082291666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>192833.8611051895</v>
+        <v>207800.825250087</v>
       </c>
     </row>
     <row r="17">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>156.1917579243683</v>
+        <v>168.2847028722888</v>
       </c>
       <c r="AB17" t="n">
-        <v>213.7084538860637</v>
+        <v>230.2545546668784</v>
       </c>
       <c r="AC17" t="n">
-        <v>193.3124189889377</v>
+        <v>208.279383133835</v>
       </c>
       <c r="AD17" t="n">
-        <v>156191.7579243683</v>
+        <v>168284.7028722888</v>
       </c>
       <c r="AE17" t="n">
-        <v>213708.4538860637</v>
+        <v>230254.5546668784</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.969576137228719e-06</v>
+        <v>9.257943419077126e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.082291666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>193312.4189889377</v>
+        <v>208279.383133835</v>
       </c>
     </row>
   </sheetData>
@@ -16495,28 +16495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.0012096791764</v>
+        <v>321.2422661659455</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.106646085447</v>
+        <v>439.5378407768067</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.0620819678352</v>
+        <v>397.5889661483015</v>
       </c>
       <c r="AD2" t="n">
-        <v>299001.2096791764</v>
+        <v>321242.2661659455</v>
       </c>
       <c r="AE2" t="n">
-        <v>409106.646085447</v>
+        <v>439537.8407768067</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26333708395143e-06</v>
+        <v>6.541350553137749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>370062.0819678352</v>
+        <v>397588.9661483015</v>
       </c>
     </row>
     <row r="3">
@@ -16601,28 +16601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.4376656494817</v>
+        <v>195.6786326276995</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.3050656713037</v>
+        <v>267.7361378930993</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.6570032634546</v>
+        <v>242.1837766626898</v>
       </c>
       <c r="AD3" t="n">
-        <v>173437.6656494818</v>
+        <v>195678.6326276995</v>
       </c>
       <c r="AE3" t="n">
-        <v>237305.0656713037</v>
+        <v>267736.1378930993</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.481142640313162e-06</v>
+        <v>8.982438569725741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214657.0032634546</v>
+        <v>242183.7766626898</v>
       </c>
     </row>
     <row r="4">
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.6240505540483</v>
+        <v>173.6944253316739</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.4587151489678</v>
+        <v>237.6563755959165</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.6591465453448</v>
+        <v>214.974784661929</v>
       </c>
       <c r="AD4" t="n">
-        <v>151624.0505540483</v>
+        <v>173694.4253316739</v>
       </c>
       <c r="AE4" t="n">
-        <v>207458.7151489678</v>
+        <v>237656.3755959165</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.912107402192186e-06</v>
+        <v>9.846306294995089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.373958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>187659.1465453448</v>
+        <v>214974.784661929</v>
       </c>
     </row>
     <row r="5">
@@ -16813,28 +16813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.6687589781371</v>
+        <v>152.789331975797</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.8374460183455</v>
+        <v>209.0531045987917</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.3378722229735</v>
+        <v>189.1013697038178</v>
       </c>
       <c r="AD5" t="n">
-        <v>141668.7589781371</v>
+        <v>152789.331975797</v>
       </c>
       <c r="AE5" t="n">
-        <v>193837.4460183455</v>
+        <v>209053.1045987917</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.119715011735238e-06</v>
+        <v>1.026245519919461e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.236458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>175337.8722229736</v>
+        <v>189101.3697038178</v>
       </c>
     </row>
     <row r="6">
@@ -16919,28 +16919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.7202255454899</v>
+        <v>145.8407985431499</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.3301560281424</v>
+        <v>199.5458146085886</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.7379446458671</v>
+        <v>180.5014421267113</v>
       </c>
       <c r="AD6" t="n">
-        <v>134720.2255454899</v>
+        <v>145840.7985431499</v>
       </c>
       <c r="AE6" t="n">
-        <v>184330.1560281424</v>
+        <v>199545.8146085886</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.246347699241958e-06</v>
+        <v>1.051629008635386e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.158333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>166737.9446458671</v>
+        <v>180501.4421267113</v>
       </c>
     </row>
     <row r="7">
@@ -17025,28 +17025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.007485948835</v>
+        <v>140.1280589464949</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.5137336837194</v>
+        <v>191.7293922641655</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.6675106795756</v>
+        <v>173.4310081604198</v>
       </c>
       <c r="AD7" t="n">
-        <v>129007.485948835</v>
+        <v>140128.0589464949</v>
       </c>
       <c r="AE7" t="n">
-        <v>176513.7336837194</v>
+        <v>191729.3922641655</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.33591328098352e-06</v>
+        <v>1.069582405805066e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.105208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>159667.5106795756</v>
+        <v>173431.0081604198</v>
       </c>
     </row>
     <row r="8">
@@ -17131,28 +17131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.1654678616304</v>
+        <v>139.2860408592904</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.3616473895903</v>
+        <v>190.5773059700365</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.6253778843946</v>
+        <v>172.3888753652388</v>
       </c>
       <c r="AD8" t="n">
-        <v>128165.4678616304</v>
+        <v>139286.0408592903</v>
       </c>
       <c r="AE8" t="n">
-        <v>175361.6473895903</v>
+        <v>190577.3059700365</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.356594498792406e-06</v>
+        <v>1.073727950444602e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>158625.3778843946</v>
+        <v>172388.8753652388</v>
       </c>
     </row>
     <row r="9">
@@ -17237,28 +17237,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.7644345717149</v>
+        <v>139.8850075693748</v>
       </c>
       <c r="AB9" t="n">
-        <v>176.1811800668737</v>
+        <v>191.3968386473199</v>
       </c>
       <c r="AC9" t="n">
-        <v>159.3666955131797</v>
+        <v>173.1301929940239</v>
       </c>
       <c r="AD9" t="n">
-        <v>128764.4345717149</v>
+        <v>139885.0075693748</v>
       </c>
       <c r="AE9" t="n">
-        <v>176181.1800668737</v>
+        <v>191396.8386473199</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.356276326210731e-06</v>
+        <v>1.073664172834763e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>159366.6955131797</v>
+        <v>173130.1929940239</v>
       </c>
     </row>
   </sheetData>
@@ -17534,28 +17534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.7128341783591</v>
+        <v>229.9180808460823</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.5701074830917</v>
+        <v>314.5840614833141</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.3156972251525</v>
+        <v>284.5606001769431</v>
       </c>
       <c r="AD2" t="n">
-        <v>208712.8341783591</v>
+        <v>229918.0808460823</v>
       </c>
       <c r="AE2" t="n">
-        <v>285570.1074830917</v>
+        <v>314584.0614833141</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.921815449104754e-06</v>
+        <v>8.204683181695943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.402083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>258315.6972251525</v>
+        <v>284560.6001769431</v>
       </c>
     </row>
     <row r="3">
@@ -17640,28 +17640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.9423320280084</v>
+        <v>161.06223784116</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.4752725005989</v>
+        <v>220.3724593786237</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.2011412304286</v>
+        <v>199.3404211502804</v>
       </c>
       <c r="AD3" t="n">
-        <v>139942.3320280084</v>
+        <v>161062.23784116</v>
       </c>
       <c r="AE3" t="n">
-        <v>191475.2725005989</v>
+        <v>220372.4593786238</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.9809011642754e-06</v>
+        <v>1.042035673084742e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.465625000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>173201.1412304286</v>
+        <v>199340.4211502804</v>
       </c>
     </row>
     <row r="4">
@@ -17746,28 +17746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.729629874326</v>
+        <v>135.3749683897489</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.6605822768886</v>
+        <v>185.2260040728728</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.3729758280614</v>
+        <v>167.5482942105393</v>
       </c>
       <c r="AD4" t="n">
-        <v>124729.629874326</v>
+        <v>135374.9683897489</v>
       </c>
       <c r="AE4" t="n">
-        <v>170660.5822768886</v>
+        <v>185226.0040728728</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.348788863802677e-06</v>
+        <v>1.119000080518888e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.227083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>154372.9758280613</v>
+        <v>167548.2942105393</v>
       </c>
     </row>
     <row r="5">
@@ -17852,28 +17852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.1243109755338</v>
+        <v>127.7696494909567</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.2546494365765</v>
+        <v>174.8200712325607</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.9601706132069</v>
+        <v>158.1354889956849</v>
       </c>
       <c r="AD5" t="n">
-        <v>117124.3109755338</v>
+        <v>127769.6494909567</v>
       </c>
       <c r="AE5" t="n">
-        <v>160254.6494365765</v>
+        <v>174820.0712325607</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.513841183050051e-06</v>
+        <v>1.153530057908261e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.130208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>144960.1706132069</v>
+        <v>158135.4889956849</v>
       </c>
     </row>
     <row r="6">
@@ -17958,28 +17958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.0095807052596</v>
+        <v>127.6549192206825</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.0976704192451</v>
+        <v>174.6630922152293</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.8181734529681</v>
+        <v>157.9934918354461</v>
       </c>
       <c r="AD6" t="n">
-        <v>117009.5807052596</v>
+        <v>127654.9192206825</v>
       </c>
       <c r="AE6" t="n">
-        <v>160097.6704192451</v>
+        <v>174663.0922152293</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.526104106367626e-06</v>
+        <v>1.156095538156066e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.123958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>144818.1734529681</v>
+        <v>157993.4918354461</v>
       </c>
     </row>
   </sheetData>
@@ -33268,28 +33268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.9081710846831</v>
+        <v>184.5336449842214</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.5839496272667</v>
+        <v>252.4870741171466</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.4861130313301</v>
+        <v>228.3900621313137</v>
       </c>
       <c r="AD2" t="n">
-        <v>153908.1710846831</v>
+        <v>184533.6449842214</v>
       </c>
       <c r="AE2" t="n">
-        <v>210583.9496272667</v>
+        <v>252487.0741171466</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.473156747910265e-06</v>
+        <v>9.723997605918716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.991666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>190486.1130313301</v>
+        <v>228390.0621313137</v>
       </c>
     </row>
     <row r="3">
@@ -33374,28 +33374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.4946042736729</v>
+        <v>136.8547824788684</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.3930569463919</v>
+        <v>187.2507509943951</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.1808073010326</v>
+        <v>169.3798021276224</v>
       </c>
       <c r="AD3" t="n">
-        <v>116494.6042736729</v>
+        <v>136854.7824788684</v>
       </c>
       <c r="AE3" t="n">
-        <v>159393.0569463919</v>
+        <v>187250.7509943951</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.397478859688152e-06</v>
+        <v>1.173334056181332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.308333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>144180.8073010326</v>
+        <v>169379.8021276224</v>
       </c>
     </row>
     <row r="4">
@@ -33480,28 +33480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.293367907175</v>
+        <v>118.5588426186199</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.1717635367421</v>
+        <v>162.2174389177156</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.030458385212</v>
+        <v>146.735634221059</v>
       </c>
       <c r="AD4" t="n">
-        <v>108293.367907175</v>
+        <v>118558.8426186199</v>
       </c>
       <c r="AE4" t="n">
-        <v>148171.7635367421</v>
+        <v>162217.4389177156</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.621530973948852e-06</v>
+        <v>1.222039754314756e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.176041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>134030.458385212</v>
+        <v>146735.634221059</v>
       </c>
     </row>
     <row r="5">
@@ -33586,28 +33586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.8979294563042</v>
+        <v>119.1634041677491</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.9989513196334</v>
+        <v>163.0446267006069</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.7787005270697</v>
+        <v>147.4838763629168</v>
       </c>
       <c r="AD5" t="n">
-        <v>108897.9294563042</v>
+        <v>119163.4041677491</v>
       </c>
       <c r="AE5" t="n">
-        <v>148998.9513196335</v>
+        <v>163044.6267006069</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.622730947016812e-06</v>
+        <v>1.222300611152502e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.176041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>134778.7005270697</v>
+        <v>147483.8763629168</v>
       </c>
     </row>
   </sheetData>
@@ -33883,28 +33883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.24532130796145</v>
+        <v>112.0994837894501</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.5823623067463</v>
+        <v>153.3794592008503</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4060807111942</v>
+        <v>138.7411388841861</v>
       </c>
       <c r="AD2" t="n">
-        <v>93245.32130796145</v>
+        <v>112099.4837894501</v>
       </c>
       <c r="AE2" t="n">
-        <v>127582.3623067463</v>
+        <v>153379.4592008503</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.584127525285494e-06</v>
+        <v>1.328199788664288e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.432291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115406.0807111943</v>
+        <v>138741.1388841861</v>
       </c>
     </row>
     <row r="3">
@@ -33989,28 +33989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.23488234924734</v>
+        <v>112.089044830736</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.5680792628993</v>
+        <v>153.3651761570033</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.3931608210056</v>
+        <v>138.7282189939974</v>
       </c>
       <c r="AD3" t="n">
-        <v>93234.88234924735</v>
+        <v>112089.044830736</v>
       </c>
       <c r="AE3" t="n">
-        <v>127568.0792628993</v>
+        <v>153365.1761570033</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.62184568484673e-06</v>
+        <v>1.337171154617375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.409374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>115393.1608210056</v>
+        <v>138728.2189939974</v>
       </c>
     </row>
   </sheetData>
@@ -34286,28 +34286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.5196868018408</v>
+        <v>437.0894557053015</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.7451933975703</v>
+        <v>598.0450763218525</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.1828451154392</v>
+        <v>540.9684935992304</v>
       </c>
       <c r="AD2" t="n">
-        <v>402519.6868018408</v>
+        <v>437089.4557053015</v>
       </c>
       <c r="AE2" t="n">
-        <v>550745.1933975704</v>
+        <v>598045.0763218525</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.729956836245447e-06</v>
+        <v>5.29769470967735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.870833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>498182.8451154392</v>
+        <v>540968.4935992304</v>
       </c>
     </row>
     <row r="3">
@@ -34392,28 +34392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.2979942702763</v>
+        <v>231.3445068725831</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.0025052194081</v>
+        <v>316.5357605022465</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.8022661248799</v>
+        <v>286.3260317807361</v>
       </c>
       <c r="AD3" t="n">
-        <v>208297.9942702763</v>
+        <v>231344.5068725832</v>
       </c>
       <c r="AE3" t="n">
-        <v>285002.5052194081</v>
+        <v>316535.7605022466</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.062776479778198e-06</v>
+        <v>7.884135447769177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.944791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257802.2661248799</v>
+        <v>286326.0317807361</v>
       </c>
     </row>
     <row r="4">
@@ -34498,28 +34498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.7449935435927</v>
+        <v>200.7915061458996</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.1985417219187</v>
+        <v>274.7317970047572</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.9880142313464</v>
+        <v>248.5117798872026</v>
       </c>
       <c r="AD4" t="n">
-        <v>177744.9935435927</v>
+        <v>200791.5061458996</v>
       </c>
       <c r="AE4" t="n">
-        <v>243198.5417219187</v>
+        <v>274731.7970047572</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.54485035915803e-06</v>
+        <v>8.819637506467134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.527083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>219988.0142313464</v>
+        <v>248511.7798872025</v>
       </c>
     </row>
     <row r="5">
@@ -34604,28 +34604,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.4088160940384</v>
+        <v>187.2847364957531</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.9513953848223</v>
+        <v>256.2512388928138</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.4823499306258</v>
+        <v>231.794980303831</v>
       </c>
       <c r="AD5" t="n">
-        <v>164408.8160940384</v>
+        <v>187284.7364957531</v>
       </c>
       <c r="AE5" t="n">
-        <v>224951.3953848223</v>
+        <v>256251.2388928139</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.789349367882752e-06</v>
+        <v>9.294106951494599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.346875</v>
       </c>
       <c r="AH5" t="n">
-        <v>203482.3499306258</v>
+        <v>231794.980303831</v>
       </c>
     </row>
     <row r="6">
@@ -34710,28 +34710,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.2202421948228</v>
+        <v>167.7435880045273</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.7474273215367</v>
+        <v>229.5141774325044</v>
       </c>
       <c r="AC6" t="n">
-        <v>193.3476728544289</v>
+        <v>207.6096664635835</v>
       </c>
       <c r="AD6" t="n">
-        <v>156220.2421948228</v>
+        <v>167743.5880045273</v>
       </c>
       <c r="AE6" t="n">
-        <v>213747.4273215368</v>
+        <v>229514.1774325044</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.942142014618843e-06</v>
+        <v>9.590613030105219e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.242708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>193347.6728544289</v>
+        <v>207609.6664635835</v>
       </c>
     </row>
     <row r="7">
@@ -34816,28 +34816,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.6278486168966</v>
+        <v>162.1511944266011</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.0956677092298</v>
+        <v>221.8624178201974</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.426186440206</v>
+        <v>200.6881800493607</v>
       </c>
       <c r="AD7" t="n">
-        <v>150627.8486168966</v>
+        <v>162151.1944266011</v>
       </c>
       <c r="AE7" t="n">
-        <v>206095.6677092298</v>
+        <v>221862.4178201974</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.035540943691157e-06</v>
+        <v>9.771860955298216e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>186426.186440206</v>
+        <v>200688.1800493606</v>
       </c>
     </row>
     <row r="8">
@@ -34922,28 +34922,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.6507806995651</v>
+        <v>157.1741265092695</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.2858238120004</v>
+        <v>215.052573922968</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.26626448685</v>
+        <v>194.5282580960047</v>
       </c>
       <c r="AD8" t="n">
-        <v>145650.7806995651</v>
+        <v>157174.1265092695</v>
       </c>
       <c r="AE8" t="n">
-        <v>199285.8238120004</v>
+        <v>215052.573922968</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.113706769010325e-06</v>
+        <v>9.923547851505865e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.134375</v>
       </c>
       <c r="AH8" t="n">
-        <v>180266.26448685</v>
+        <v>194528.2580960047</v>
       </c>
     </row>
     <row r="9">
@@ -35028,28 +35028,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.6877075373255</v>
+        <v>153.2110533470299</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.8633722729784</v>
+        <v>209.630122383946</v>
       </c>
       <c r="AC9" t="n">
-        <v>175.361324112252</v>
+        <v>189.6233177214067</v>
       </c>
       <c r="AD9" t="n">
-        <v>141687.7075373254</v>
+        <v>153211.0533470299</v>
       </c>
       <c r="AE9" t="n">
-        <v>193863.3722729784</v>
+        <v>209630.122383946</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.163098953906886e-06</v>
+        <v>1.001939724851896e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.104166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>175361.324112252</v>
+        <v>189623.3177214067</v>
       </c>
     </row>
     <row r="10">
@@ -35134,28 +35134,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.7381645596317</v>
+        <v>150.2615103693362</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.8276774462474</v>
+        <v>205.5944275572151</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.7107903356497</v>
+        <v>185.9727839448044</v>
       </c>
       <c r="AD10" t="n">
-        <v>138738.1645596317</v>
+        <v>150261.5103693362</v>
       </c>
       <c r="AE10" t="n">
-        <v>189827.6774462474</v>
+        <v>205594.4275572151</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.199873820543267e-06</v>
+        <v>1.009076175283713e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.082291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>171710.7903356497</v>
+        <v>185972.7839448044</v>
       </c>
     </row>
     <row r="11">
@@ -35240,28 +35240,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>138.9380270049701</v>
+        <v>150.4613728146746</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.1011380612681</v>
+        <v>205.8678881722357</v>
       </c>
       <c r="AC11" t="n">
-        <v>171.9581522533773</v>
+        <v>186.2201458625319</v>
       </c>
       <c r="AD11" t="n">
-        <v>138938.0270049701</v>
+        <v>150461.3728146746</v>
       </c>
       <c r="AE11" t="n">
-        <v>190101.1380612681</v>
+        <v>205867.8881722357</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.200950908687428e-06</v>
+        <v>1.009285192660377e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.081249999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>171958.1522533773</v>
+        <v>186220.1458625319</v>
       </c>
     </row>
   </sheetData>
@@ -35537,28 +35537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.2765425340473</v>
+        <v>690.0532731499529</v>
       </c>
       <c r="AB2" t="n">
-        <v>878.7911007363399</v>
+        <v>944.1613313256186</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.9205114731192</v>
+        <v>854.0518990026518</v>
       </c>
       <c r="AD2" t="n">
-        <v>642276.5425340473</v>
+        <v>690053.2731499529</v>
       </c>
       <c r="AE2" t="n">
-        <v>878791.1007363399</v>
+        <v>944161.3313256186</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.114235728125757e-06</v>
+        <v>3.96713549104581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.305208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>794920.5114731191</v>
+        <v>854051.8990026518</v>
       </c>
     </row>
     <row r="3">
@@ -35643,28 +35643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.554159445863</v>
+        <v>294.4425695080914</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.1841369609445</v>
+        <v>402.869313490358</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.8542824860905</v>
+        <v>364.4200316414702</v>
       </c>
       <c r="AD3" t="n">
-        <v>270554.159445863</v>
+        <v>294442.5695080914</v>
       </c>
       <c r="AE3" t="n">
-        <v>370184.1369609445</v>
+        <v>402869.313490358</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.599642385280105e-06</v>
+        <v>6.754340999797962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.290624999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>334854.2824860906</v>
+        <v>364420.0316414703</v>
       </c>
     </row>
     <row r="4">
@@ -35749,28 +35749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.6214690670563</v>
+        <v>237.5951304753049</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.2863182914915</v>
+        <v>325.0881394735375</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.3909223002619</v>
+        <v>294.062183706349</v>
       </c>
       <c r="AD4" t="n">
-        <v>213621.4690670563</v>
+        <v>237595.1304753049</v>
       </c>
       <c r="AE4" t="n">
-        <v>292286.3182914915</v>
+        <v>325088.1394735375</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.125421184069216e-06</v>
+        <v>7.740908252147247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.74375</v>
       </c>
       <c r="AH4" t="n">
-        <v>264390.9223002619</v>
+        <v>294062.183706349</v>
       </c>
     </row>
     <row r="5">
@@ -35855,28 +35855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.0598743939741</v>
+        <v>219.0335358022227</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.88952558003</v>
+        <v>299.6913467620759</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.4179638405517</v>
+        <v>271.0892252466388</v>
       </c>
       <c r="AD5" t="n">
-        <v>195059.8743939741</v>
+        <v>219033.5358022227</v>
       </c>
       <c r="AE5" t="n">
-        <v>266889.5255800299</v>
+        <v>299691.3467620759</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.400617306616478e-06</v>
+        <v>8.257284118013087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.509375</v>
       </c>
       <c r="AH5" t="n">
-        <v>241417.9638405517</v>
+        <v>271089.2252466388</v>
       </c>
     </row>
     <row r="6">
@@ -35961,28 +35961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.9055788968124</v>
+        <v>208.7086481044689</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.9959705049195</v>
+        <v>285.5643799121187</v>
       </c>
       <c r="AC6" t="n">
-        <v>228.8503901620784</v>
+        <v>258.3105162855144</v>
       </c>
       <c r="AD6" t="n">
-        <v>184905.5788968125</v>
+        <v>208708.6481044689</v>
       </c>
       <c r="AE6" t="n">
-        <v>252995.9705049195</v>
+        <v>285564.3799121187</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.566090837199852e-06</v>
+        <v>8.567777364945348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.382291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>228850.3901620784</v>
+        <v>258310.5162855144</v>
       </c>
     </row>
     <row r="7">
@@ -36067,28 +36067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.4161904794994</v>
+        <v>189.4031106921747</v>
       </c>
       <c r="AB7" t="n">
-        <v>242.748658863859</v>
+        <v>259.1496919244304</v>
       </c>
       <c r="AC7" t="n">
-        <v>219.5810675618452</v>
+        <v>234.4168090461153</v>
       </c>
       <c r="AD7" t="n">
-        <v>177416.1904794994</v>
+        <v>189403.1106921748</v>
       </c>
       <c r="AE7" t="n">
-        <v>242748.658863859</v>
+        <v>259149.6919244304</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.689602890045687e-06</v>
+        <v>8.799534421123283e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.29375</v>
       </c>
       <c r="AH7" t="n">
-        <v>219581.0675618452</v>
+        <v>234416.8090461153</v>
       </c>
     </row>
     <row r="8">
@@ -36173,28 +36173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>171.9677959048016</v>
+        <v>183.9547161174769</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.2939250405567</v>
+        <v>251.6949581011281</v>
       </c>
       <c r="AC8" t="n">
-        <v>212.8378030718519</v>
+        <v>227.673544556122</v>
       </c>
       <c r="AD8" t="n">
-        <v>171967.7959048016</v>
+        <v>183954.7161174769</v>
       </c>
       <c r="AE8" t="n">
-        <v>235293.9250405567</v>
+        <v>251694.9581011281</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.77574995211463e-06</v>
+        <v>8.961180098961673e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>212837.8030718518</v>
+        <v>227673.544556122</v>
       </c>
     </row>
     <row r="9">
@@ -36279,28 +36279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>167.8459627369001</v>
+        <v>179.8328829495754</v>
       </c>
       <c r="AB9" t="n">
-        <v>229.6542510577912</v>
+        <v>246.0552841183625</v>
       </c>
       <c r="AC9" t="n">
-        <v>207.7363716586675</v>
+        <v>222.5721131429376</v>
       </c>
       <c r="AD9" t="n">
-        <v>167845.9627369001</v>
+        <v>179832.8829495754</v>
       </c>
       <c r="AE9" t="n">
-        <v>229654.2510577911</v>
+        <v>246055.2841183625</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.838024936742783e-06</v>
+        <v>9.078032396194246e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.192708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>207736.3716586675</v>
+        <v>222572.1131429376</v>
       </c>
     </row>
     <row r="10">
@@ -36385,28 +36385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>164.0962839820602</v>
+        <v>176.0832041947356</v>
       </c>
       <c r="AB10" t="n">
-        <v>224.5237751612702</v>
+        <v>240.9248082218416</v>
       </c>
       <c r="AC10" t="n">
-        <v>203.0955411810407</v>
+        <v>217.9312826653109</v>
       </c>
       <c r="AD10" t="n">
-        <v>164096.2839820602</v>
+        <v>176083.2041947356</v>
       </c>
       <c r="AE10" t="n">
-        <v>224523.7751612702</v>
+        <v>240924.8082218416</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.888586293309925e-06</v>
+        <v>9.172905332756882e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.159374999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>203095.5411810408</v>
+        <v>217931.2826653109</v>
       </c>
     </row>
     <row r="11">
@@ -36491,28 +36491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>160.6321012353241</v>
+        <v>172.6190214479995</v>
       </c>
       <c r="AB11" t="n">
-        <v>219.7839274982316</v>
+        <v>236.1849605588029</v>
       </c>
       <c r="AC11" t="n">
-        <v>198.8080579265431</v>
+        <v>213.6437994108131</v>
       </c>
       <c r="AD11" t="n">
-        <v>160632.1012353241</v>
+        <v>172619.0214479995</v>
       </c>
       <c r="AE11" t="n">
-        <v>219783.9274982316</v>
+        <v>236184.9605588029</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.932178782549632e-06</v>
+        <v>9.25470194081968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.13125</v>
       </c>
       <c r="AH11" t="n">
-        <v>198808.0579265431</v>
+        <v>213643.7994108131</v>
       </c>
     </row>
     <row r="12">
@@ -36597,28 +36597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>157.7535593566809</v>
+        <v>169.7404795693563</v>
       </c>
       <c r="AB12" t="n">
-        <v>215.845379507569</v>
+        <v>232.2464125681403</v>
       </c>
       <c r="AC12" t="n">
-        <v>195.2453994283212</v>
+        <v>210.0811409125913</v>
       </c>
       <c r="AD12" t="n">
-        <v>157753.5593566809</v>
+        <v>169740.4795693563</v>
       </c>
       <c r="AE12" t="n">
-        <v>215845.379507569</v>
+        <v>232246.4125681403</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.95916460922183e-06</v>
+        <v>9.305337936287128e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.114583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>195245.3994283212</v>
+        <v>210081.1409125913</v>
       </c>
     </row>
     <row r="13">
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.3782264954934</v>
+        <v>166.3651467081687</v>
       </c>
       <c r="AB13" t="n">
-        <v>211.2271001777181</v>
+        <v>227.6281332382895</v>
       </c>
       <c r="AC13" t="n">
-        <v>191.0678821959141</v>
+        <v>205.9036236801842</v>
       </c>
       <c r="AD13" t="n">
-        <v>154378.2264954934</v>
+        <v>166365.1467081687</v>
       </c>
       <c r="AE13" t="n">
-        <v>211227.1001777181</v>
+        <v>227628.1332382894</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.000236444321826e-06</v>
+        <v>9.382404808509563e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.088541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>191067.8821959141</v>
+        <v>205903.6236801842</v>
       </c>
     </row>
     <row r="14">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>152.4963466135547</v>
+        <v>164.48326682623</v>
       </c>
       <c r="AB14" t="n">
-        <v>208.6522291005699</v>
+        <v>225.0532621611413</v>
       </c>
       <c r="AC14" t="n">
-        <v>188.7387532005139</v>
+        <v>203.574494684784</v>
       </c>
       <c r="AD14" t="n">
-        <v>152496.3466135547</v>
+        <v>164483.26682623</v>
       </c>
       <c r="AE14" t="n">
-        <v>208652.2291005699</v>
+        <v>225053.2621611413</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.013136262566229e-06</v>
+        <v>9.406609927222024e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.081249999999999</v>
       </c>
       <c r="AH14" t="n">
-        <v>188738.7532005139</v>
+        <v>203574.494684784</v>
       </c>
     </row>
     <row r="15">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>151.277013877787</v>
+        <v>163.2639340904623</v>
       </c>
       <c r="AB15" t="n">
-        <v>206.9838842583296</v>
+        <v>223.3849173189009</v>
       </c>
       <c r="AC15" t="n">
-        <v>187.2296328484797</v>
+        <v>202.0653743327498</v>
       </c>
       <c r="AD15" t="n">
-        <v>151277.013877787</v>
+        <v>163263.9340904623</v>
       </c>
       <c r="AE15" t="n">
-        <v>206983.8842583296</v>
+        <v>223384.9173189009</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.026777449675253e-06</v>
+        <v>9.432206144711063e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>187229.6328484797</v>
+        <v>202065.3743327498</v>
       </c>
     </row>
     <row r="16">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>152.0562428769539</v>
+        <v>164.0431630896293</v>
       </c>
       <c r="AB16" t="n">
-        <v>208.0500597521466</v>
+        <v>224.4510928127179</v>
       </c>
       <c r="AC16" t="n">
-        <v>188.1940540495538</v>
+        <v>203.0297955338239</v>
       </c>
       <c r="AD16" t="n">
-        <v>152056.2428769539</v>
+        <v>164043.1630896293</v>
       </c>
       <c r="AE16" t="n">
-        <v>208050.0597521466</v>
+        <v>224451.0928127179</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.02559125949186e-06</v>
+        <v>9.42998038666854e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>188194.0540495538</v>
+        <v>203029.7955338239</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.54708028562433</v>
+        <v>103.8674662120909</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.0492893175654</v>
+        <v>142.1160495805288</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8782694248366</v>
+        <v>128.5526932697298</v>
       </c>
       <c r="AD2" t="n">
-        <v>85547.08028562434</v>
+        <v>103867.4662120909</v>
       </c>
       <c r="AE2" t="n">
-        <v>117049.2893175654</v>
+        <v>142116.0495805288</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.397329242009986e-06</v>
+        <v>1.349831083347855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105878.2694248366</v>
+        <v>128552.6932697298</v>
       </c>
     </row>
   </sheetData>
@@ -37615,28 +37615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.7398969596238</v>
+        <v>266.0963970280839</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.8132388964862</v>
+        <v>364.0848297583409</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2907122370004</v>
+        <v>329.337084602472</v>
       </c>
       <c r="AD2" t="n">
-        <v>233739.8969596238</v>
+        <v>266096.3970280839</v>
       </c>
       <c r="AE2" t="n">
-        <v>319813.2388964862</v>
+        <v>364084.8297583409</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.677510249760169e-06</v>
+        <v>7.5730360243948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.626041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289290.7122370004</v>
+        <v>329337.084602472</v>
       </c>
     </row>
     <row r="3">
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.9002545245335</v>
+        <v>172.5281484732191</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.468385489759</v>
+        <v>236.0606241456758</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.7633325588742</v>
+        <v>213.5313294904476</v>
       </c>
       <c r="AD3" t="n">
-        <v>150900.2545245335</v>
+        <v>172528.1484732191</v>
       </c>
       <c r="AE3" t="n">
-        <v>206468.3854897589</v>
+        <v>236060.6241456758</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.808687581025209e-06</v>
+        <v>9.902450790868282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>186763.3325588742</v>
+        <v>213531.3294904476</v>
       </c>
     </row>
     <row r="4">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.220676814673</v>
+        <v>145.0347132975668</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.6466514161045</v>
+        <v>198.4428932136113</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.1196727546971</v>
+        <v>179.5037820017103</v>
       </c>
       <c r="AD4" t="n">
-        <v>134220.676814673</v>
+        <v>145034.7132975668</v>
       </c>
       <c r="AE4" t="n">
-        <v>183646.6514161045</v>
+        <v>198442.8932136113</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.184276993744943e-06</v>
+        <v>1.067589585552672e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>166119.6727546971</v>
+        <v>179503.7820017103</v>
       </c>
     </row>
     <row r="5">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.3945786911317</v>
+        <v>136.2086151740255</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.5703945835131</v>
+        <v>186.3666363810199</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.1959569250715</v>
+        <v>168.5800661720847</v>
       </c>
       <c r="AD5" t="n">
-        <v>125394.5786911317</v>
+        <v>136208.6151740255</v>
       </c>
       <c r="AE5" t="n">
-        <v>171570.3945835131</v>
+        <v>186366.6363810199</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.376807392699972e-06</v>
+        <v>1.107237052127989e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.163541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>155195.9569250715</v>
+        <v>168580.0661720847</v>
       </c>
     </row>
     <row r="6">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.2164265114842</v>
+        <v>131.030462994378</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.4854183273716</v>
+        <v>179.2816601248784</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.7871608589872</v>
+        <v>162.1712701060005</v>
       </c>
       <c r="AD6" t="n">
-        <v>120216.4265114842</v>
+        <v>131030.462994378</v>
       </c>
       <c r="AE6" t="n">
-        <v>164485.4183273716</v>
+        <v>179281.6601248784</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.470214846645922e-06</v>
+        <v>1.126472294605582e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>148787.1608589872</v>
+        <v>162171.2701060005</v>
       </c>
     </row>
     <row r="7">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.9402949292374</v>
+        <v>131.7543314121312</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.4758470313618</v>
+        <v>180.2720888288686</v>
       </c>
       <c r="AC7" t="n">
-        <v>149.6830644375443</v>
+        <v>163.0671736845576</v>
       </c>
       <c r="AD7" t="n">
-        <v>120940.2949292374</v>
+        <v>131754.3314121312</v>
       </c>
       <c r="AE7" t="n">
-        <v>165475.8470313618</v>
+        <v>180272.0888288686</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.469561647667279e-06</v>
+        <v>1.126337782420424e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.110416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>149683.0644375443</v>
+        <v>163067.1736845576</v>
       </c>
     </row>
   </sheetData>
@@ -38442,28 +38442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.5824422433926</v>
+        <v>365.1957720291211</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.685725862343</v>
+        <v>499.6769665906279</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.3865969379557</v>
+        <v>451.9884982002447</v>
       </c>
       <c r="AD2" t="n">
-        <v>331582.4422433926</v>
+        <v>365195.7720291211</v>
       </c>
       <c r="AE2" t="n">
-        <v>453685.725862343</v>
+        <v>499676.9665906279</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066785044583895e-06</v>
+        <v>6.075865804582802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.340625</v>
       </c>
       <c r="AH2" t="n">
-        <v>410386.5969379557</v>
+        <v>451988.4982002447</v>
       </c>
     </row>
     <row r="3">
@@ -38548,28 +38548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.3212851137468</v>
+        <v>206.8438997712936</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.1965139737071</v>
+        <v>283.0129489757791</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.1272326401603</v>
+        <v>256.0025903367826</v>
       </c>
       <c r="AD3" t="n">
-        <v>184321.2851137468</v>
+        <v>206843.8997712936</v>
       </c>
       <c r="AE3" t="n">
-        <v>252196.513973707</v>
+        <v>283012.9489757791</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.342017972740358e-06</v>
+        <v>8.60233702066868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.771875</v>
       </c>
       <c r="AH3" t="n">
-        <v>228127.2326401603</v>
+        <v>256002.5903367826</v>
       </c>
     </row>
     <row r="4">
@@ -38654,28 +38654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.7942392740561</v>
+        <v>183.1462617310107</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.0057719158501</v>
+        <v>250.5887951430753</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.0087298243047</v>
+        <v>226.6729522382759</v>
       </c>
       <c r="AD4" t="n">
-        <v>160794.2392740561</v>
+        <v>183146.2617310107</v>
       </c>
       <c r="AE4" t="n">
-        <v>220005.7719158501</v>
+        <v>250588.7951430753</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.774223042337463e-06</v>
+        <v>9.458614837586456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.430208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>199008.7298243047</v>
+        <v>226672.9522382759</v>
       </c>
     </row>
     <row r="5">
@@ -38760,28 +38760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.3443202998482</v>
+        <v>160.6057171371727</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.3394876405721</v>
+        <v>219.7478276111566</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.8376137324863</v>
+        <v>198.7754033620239</v>
       </c>
       <c r="AD5" t="n">
-        <v>149344.3202998482</v>
+        <v>160605.7171371727</v>
       </c>
       <c r="AE5" t="n">
-        <v>204339.4876405722</v>
+        <v>219747.8276111566</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.003610891206935e-06</v>
+        <v>9.913074399202692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.272916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>184837.6137324863</v>
+        <v>198775.4033620239</v>
       </c>
     </row>
     <row r="6">
@@ -38866,28 +38866,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.7494934768077</v>
+        <v>153.0108903141322</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.9479105211813</v>
+        <v>209.3562504917657</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.4377941486966</v>
+        <v>189.3755837782343</v>
       </c>
       <c r="AD6" t="n">
-        <v>141749.4934768077</v>
+        <v>153010.8903141321</v>
       </c>
       <c r="AE6" t="n">
-        <v>193947.9105211813</v>
+        <v>209356.2504917657</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.148570176099089e-06</v>
+        <v>1.020026543128643e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.18125</v>
       </c>
       <c r="AH6" t="n">
-        <v>175437.7941486966</v>
+        <v>189375.5837782343</v>
       </c>
     </row>
     <row r="7">
@@ -38972,28 +38972,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.6413671665802</v>
+        <v>147.9027640039046</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.9587467489034</v>
+        <v>202.3670867194878</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.1156663574897</v>
+        <v>183.0534559870274</v>
       </c>
       <c r="AD7" t="n">
-        <v>136641.3671665802</v>
+        <v>147902.7640039046</v>
       </c>
       <c r="AE7" t="n">
-        <v>186958.7467489034</v>
+        <v>202367.0867194878</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.23032595499705e-06</v>
+        <v>1.03622386814855e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.13125</v>
       </c>
       <c r="AH7" t="n">
-        <v>169115.6663574897</v>
+        <v>183053.4559870274</v>
       </c>
     </row>
     <row r="8">
@@ -39078,28 +39078,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.1717424781096</v>
+        <v>143.433139315434</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.8432090642164</v>
+        <v>196.2515490348008</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.5837870062163</v>
+        <v>177.521576635754</v>
       </c>
       <c r="AD8" t="n">
-        <v>132171.7424781096</v>
+        <v>143433.139315434</v>
       </c>
       <c r="AE8" t="n">
-        <v>180843.2090642164</v>
+        <v>196251.5490348008</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.29415835159815e-06</v>
+        <v>1.048870241144862e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>163583.7870062163</v>
+        <v>177521.576635754</v>
       </c>
     </row>
     <row r="9">
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.6025466687862</v>
+        <v>142.8639435061106</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.0644102467537</v>
+        <v>195.4727502173381</v>
       </c>
       <c r="AC9" t="n">
-        <v>162.879315654841</v>
+        <v>176.8171052843787</v>
       </c>
       <c r="AD9" t="n">
-        <v>131602.5466687862</v>
+        <v>142863.9435061106</v>
       </c>
       <c r="AE9" t="n">
-        <v>180064.4102467537</v>
+        <v>195472.7502173381</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.302805597443126e-06</v>
+        <v>1.050583419752736e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.088541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>162879.315654841</v>
+        <v>176817.1052843787</v>
       </c>
     </row>
   </sheetData>
